--- a/2021年F题第1问/A/机组排班Data A-Flight.xlsx
+++ b/2021年F题第1问/A/机组排班Data A-Flight.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d07194e81ce8b07/代码/MATLAB/数学建模/2021数学建模F题/3/A/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5D0A0C81-84F7-5D4B-883B-0DC1C9E35044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B649BD0A-7B08-C743-956F-D06AF9FD3AED}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="880" yWindow="4580" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机组排班Data A-Flight - 副本" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'机组排班Data A-Flight - 副本'!$A$1:$Q$207</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -148,15 +167,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yymmdd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,345 +180,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -511,260 +203,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -782,61 +223,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1121,28 +518,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="P208" sqref="P208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="10.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="12.8888888888889"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D2">
         <v>234</v>
@@ -1194,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G2">
         <v>235</v>
@@ -1211,11 +610,11 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K65" si="1">VALUE(C2)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L2">
         <f>J2+K2</f>
-        <v>44419.3333333333</v>
+        <v>44419.333333333336</v>
       </c>
       <c r="M2" s="3">
         <v>44419</v>
@@ -1226,21 +625,21 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O65" si="3">VALUE(F2)</f>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P65" si="4">N2+O2</f>
-        <v>44419.3958333333</v>
+        <v>44419.395833333336</v>
       </c>
       <c r="Q2">
         <v>680</v>
       </c>
       <c r="R2">
         <f>O2-K2</f>
-        <v>0.0625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D3">
         <v>235</v>
@@ -1257,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G3">
         <v>234</v>
@@ -1274,11 +673,11 @@
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L2:L65" si="5">J3+K3</f>
-        <v>44419.4236111111</v>
+        <f t="shared" ref="L3:L65" si="5">J3+K3</f>
+        <v>44419.423611111109</v>
       </c>
       <c r="M3" s="3">
         <v>44419</v>
@@ -1289,17 +688,17 @@
       </c>
       <c r="O3">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P3">
         <f t="shared" si="4"/>
-        <v>44419.4861111111</v>
+        <v>44419.486111111109</v>
       </c>
       <c r="Q3">
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +706,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D4">
         <v>234</v>
@@ -1316,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1333,11 +732,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L4">
         <f t="shared" si="5"/>
-        <v>44419.4791666667</v>
+        <v>44419.479166666664</v>
       </c>
       <c r="M4" s="3">
         <v>44419</v>
@@ -1348,17 +747,17 @@
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>44419.5763888889</v>
+        <v>44419.576388888891</v>
       </c>
       <c r="Q4">
         <v>884</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1366,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D5">
         <v>234</v>
@@ -1375,10 +774,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1392,11 +791,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L5">
         <f t="shared" si="5"/>
-        <v>44419.5138888889</v>
+        <v>44419.513888888891</v>
       </c>
       <c r="M5" s="3">
         <v>44419</v>
@@ -1407,17 +806,17 @@
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
-        <v>44419.5868055556</v>
+        <v>44419.586805555555</v>
       </c>
       <c r="Q5">
         <v>812</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1425,16 +824,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D6">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G6">
         <v>234</v>
@@ -1451,11 +850,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
-        <v>44419.6041666667</v>
+        <v>44419.604166666664</v>
       </c>
       <c r="M6" s="3">
         <v>44419</v>
@@ -1466,17 +865,17 @@
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>44419.7013888889</v>
+        <v>44419.701388888891</v>
       </c>
       <c r="Q6">
         <v>885</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1484,16 +883,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D7">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G7">
         <v>234</v>
@@ -1510,11 +909,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>44419.6180555556</v>
+        <v>44419.618055555555</v>
       </c>
       <c r="M7" s="3">
         <v>44419</v>
@@ -1525,17 +924,17 @@
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>44419.6944444444</v>
+        <v>44419.694444444445</v>
       </c>
       <c r="Q7">
         <v>813</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>0.722222222222222</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="D8">
         <v>234</v>
@@ -1552,10 +951,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="2">
-        <v>0.791666666666667</v>
+        <v>0.79166666666666696</v>
       </c>
       <c r="G8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -1569,11 +968,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>0.722222222222222</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
-        <v>44419.7222222222</v>
+        <v>44419.722222222219</v>
       </c>
       <c r="M8" s="3">
         <v>44419</v>
@@ -1584,17 +983,17 @@
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>0.791666666666667</v>
+        <v>0.79166666666666696</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>44419.7916666667</v>
+        <v>44419.791666666664</v>
       </c>
       <c r="Q8">
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1602,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D9">
         <v>234</v>
@@ -1611,10 +1010,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G9">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -1628,11 +1027,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
-        <v>44419.7291666667</v>
+        <v>44419.729166666664</v>
       </c>
       <c r="M9" s="3">
         <v>44419</v>
@@ -1643,17 +1042,17 @@
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>44419.8020833333</v>
+        <v>44419.802083333336</v>
       </c>
       <c r="Q9">
         <v>864</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1661,16 +1060,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>0.822916666666667</v>
+        <v>0.82291666666666696</v>
       </c>
       <c r="D10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>0.895833333333333</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="G10">
         <v>234</v>
@@ -1687,11 +1086,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>0.822916666666667</v>
+        <v>0.82291666666666696</v>
       </c>
       <c r="L10">
         <f t="shared" si="5"/>
-        <v>44419.8229166667</v>
+        <v>44419.822916666664</v>
       </c>
       <c r="M10" s="3">
         <v>44419</v>
@@ -1702,17 +1101,17 @@
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.895833333333333</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>44419.8958333333</v>
+        <v>44419.895833333336</v>
       </c>
       <c r="Q10">
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1720,10 +1119,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1746,11 +1145,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>44419.8333333333</v>
+        <v>44419.833333333336</v>
       </c>
       <c r="M11" s="3">
         <v>44419</v>
@@ -1771,7 +1170,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1178,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D12">
         <v>234</v>
@@ -1791,7 +1190,7 @@
         <v>0.375</v>
       </c>
       <c r="G12">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -1805,11 +1204,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
-        <v>44420.3298611111</v>
+        <v>44420.329861111109</v>
       </c>
       <c r="M12" s="3">
         <v>44420</v>
@@ -1830,7 +1229,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1838,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D13">
         <v>234</v>
@@ -1847,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G13">
         <v>235</v>
@@ -1864,11 +1263,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
-        <v>44420.3333333333</v>
+        <v>44420.333333333336</v>
       </c>
       <c r="M13" s="3">
         <v>44420</v>
@@ -1879,17 +1278,17 @@
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>44420.3958333333</v>
+        <v>44420.395833333336</v>
       </c>
       <c r="Q13">
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1897,16 +1296,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D14">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G14">
         <v>234</v>
@@ -1923,11 +1322,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
-        <v>44420.4027777778</v>
+        <v>44420.402777777781</v>
       </c>
       <c r="M14" s="3">
         <v>44420</v>
@@ -1938,17 +1337,17 @@
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>44420.4513888889</v>
+        <v>44420.451388888891</v>
       </c>
       <c r="Q14">
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1956,7 +1355,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D15">
         <v>235</v>
@@ -1965,7 +1364,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G15">
         <v>234</v>
@@ -1982,11 +1381,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
-        <v>44420.4236111111</v>
+        <v>44420.423611111109</v>
       </c>
       <c r="M15" s="3">
         <v>44420</v>
@@ -1997,17 +1396,17 @@
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>44420.4861111111</v>
+        <v>44420.486111111109</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2015,7 +1414,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D16">
         <v>235</v>
@@ -2024,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G16">
         <v>234</v>
@@ -2041,11 +1440,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
-        <v>44420.4236111111</v>
+        <v>44420.423611111109</v>
       </c>
       <c r="M16" s="3">
         <v>44420</v>
@@ -2056,11 +1455,11 @@
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>44420.4861111111</v>
+        <v>44420.486111111109</v>
       </c>
       <c r="Q16">
         <v>681</v>
@@ -2074,7 +1473,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>0.434027777777778</v>
+        <v>0.43402777777777801</v>
       </c>
       <c r="D17">
         <v>235</v>
@@ -2083,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G17">
         <v>234</v>
@@ -2100,11 +1499,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>0.434027777777778</v>
+        <v>0.43402777777777801</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
-        <v>44420.4340277778</v>
+        <v>44420.434027777781</v>
       </c>
       <c r="M17" s="3">
         <v>44420</v>
@@ -2115,11 +1514,11 @@
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>44420.4861111111</v>
+        <v>44420.486111111109</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -2136,13 +1535,13 @@
         <v>0.4375</v>
       </c>
       <c r="D18">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G18">
         <v>234</v>
@@ -2174,11 +1573,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>44420.5347222222</v>
+        <v>44420.534722222219</v>
       </c>
       <c r="Q18">
         <v>891</v>
@@ -2192,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D19">
         <v>234</v>
@@ -2201,10 +1600,10 @@
         <v>21</v>
       </c>
       <c r="F19" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G19">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
@@ -2218,11 +1617,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>44420.4791666667</v>
+        <v>44420.479166666664</v>
       </c>
       <c r="M19" s="3">
         <v>44420</v>
@@ -2233,11 +1632,11 @@
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>44420.5763888889</v>
+        <v>44420.576388888891</v>
       </c>
       <c r="Q19">
         <v>884</v>
@@ -2251,7 +1650,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D20">
         <v>234</v>
@@ -2260,10 +1659,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G20">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -2277,11 +1676,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>44420.5138888889</v>
+        <v>44420.513888888891</v>
       </c>
       <c r="M20" s="3">
         <v>44420</v>
@@ -2292,11 +1691,11 @@
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>44420.5868055556</v>
+        <v>44420.586805555555</v>
       </c>
       <c r="Q20">
         <v>812</v>
@@ -2310,7 +1709,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D21">
         <v>234</v>
@@ -2319,10 +1718,10 @@
         <v>21</v>
       </c>
       <c r="F21" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G21">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
@@ -2336,11 +1735,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>44420.5763888889</v>
+        <v>44420.576388888891</v>
       </c>
       <c r="M21" s="3">
         <v>44420</v>
@@ -2351,11 +1750,11 @@
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>44420.6458333333</v>
+        <v>44420.645833333336</v>
       </c>
       <c r="Q21">
         <v>854</v>
@@ -2369,16 +1768,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D22">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G22">
         <v>234</v>
@@ -2395,11 +1794,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>44420.6041666667</v>
+        <v>44420.604166666664</v>
       </c>
       <c r="M22" s="3">
         <v>44420</v>
@@ -2410,11 +1809,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>44420.7013888889</v>
+        <v>44420.701388888891</v>
       </c>
       <c r="Q22">
         <v>885</v>
@@ -2428,16 +1827,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D23">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G23">
         <v>234</v>
@@ -2454,11 +1853,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>44420.6180555556</v>
+        <v>44420.618055555555</v>
       </c>
       <c r="M23" s="3">
         <v>44420</v>
@@ -2469,11 +1868,11 @@
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>44420.6944444444</v>
+        <v>44420.694444444445</v>
       </c>
       <c r="Q23">
         <v>813</v>
@@ -2487,16 +1886,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D24">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G24">
         <v>234</v>
@@ -2513,11 +1912,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>44420.6736111111</v>
+        <v>44420.673611111109</v>
       </c>
       <c r="M24" s="3">
         <v>44420</v>
@@ -2528,11 +1927,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>44420.7465277778</v>
+        <v>44420.746527777781</v>
       </c>
       <c r="Q24">
         <v>855</v>
@@ -2546,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D25">
         <v>234</v>
@@ -2555,10 +1954,10 @@
         <v>21</v>
       </c>
       <c r="F25" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G25">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H25" t="s">
         <v>10</v>
@@ -2572,11 +1971,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>44420.7291666667</v>
+        <v>44420.729166666664</v>
       </c>
       <c r="M25" s="3">
         <v>44420</v>
@@ -2587,11 +1986,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>44420.8020833333</v>
+        <v>44420.802083333336</v>
       </c>
       <c r="Q25">
         <v>864</v>
@@ -2605,10 +2004,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D26">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -2631,11 +2030,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>44420.8333333333</v>
+        <v>44420.833333333336</v>
       </c>
       <c r="M26" s="3">
         <v>44420</v>
@@ -2664,7 +2063,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D27">
         <v>234</v>
@@ -2676,7 +2075,7 @@
         <v>0.375</v>
       </c>
       <c r="G27">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H27" t="s">
         <v>10</v>
@@ -2690,11 +2089,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>44421.3298611111</v>
+        <v>44421.329861111109</v>
       </c>
       <c r="M27" s="3">
         <v>44421</v>
@@ -2723,7 +2122,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D28">
         <v>234</v>
@@ -2732,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G28">
         <v>235</v>
@@ -2749,11 +2148,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>44421.3333333333</v>
+        <v>44421.333333333336</v>
       </c>
       <c r="M28" s="3">
         <v>44421</v>
@@ -2764,11 +2163,11 @@
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>44421.3958333333</v>
+        <v>44421.395833333336</v>
       </c>
       <c r="Q28">
         <v>680</v>
@@ -2782,16 +2181,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D29">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G29">
         <v>234</v>
@@ -2808,11 +2207,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>44421.4027777778</v>
+        <v>44421.402777777781</v>
       </c>
       <c r="M29" s="3">
         <v>44421</v>
@@ -2823,11 +2222,11 @@
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
-        <v>44421.4513888889</v>
+        <v>44421.451388888891</v>
       </c>
       <c r="Q29">
         <v>873</v>
@@ -2841,7 +2240,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D30">
         <v>235</v>
@@ -2850,7 +2249,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G30">
         <v>234</v>
@@ -2867,11 +2266,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>44421.4236111111</v>
+        <v>44421.423611111109</v>
       </c>
       <c r="M30" s="3">
         <v>44421</v>
@@ -2882,11 +2281,11 @@
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
-        <v>44421.4861111111</v>
+        <v>44421.486111111109</v>
       </c>
       <c r="Q30">
         <v>681</v>
@@ -2900,7 +2299,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D31">
         <v>234</v>
@@ -2909,10 +2308,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G31">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" t="s">
         <v>10</v>
@@ -2926,11 +2325,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>44421.4791666667</v>
+        <v>44421.479166666664</v>
       </c>
       <c r="M31" s="3">
         <v>44421</v>
@@ -2941,11 +2340,11 @@
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
-        <v>44421.5763888889</v>
+        <v>44421.576388888891</v>
       </c>
       <c r="Q31">
         <v>884</v>
@@ -2959,7 +2358,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D32">
         <v>234</v>
@@ -2968,10 +2367,10 @@
         <v>26</v>
       </c>
       <c r="F32" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G32">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
@@ -2985,11 +2384,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>44421.5138888889</v>
+        <v>44421.513888888891</v>
       </c>
       <c r="M32" s="3">
         <v>44421</v>
@@ -3000,11 +2399,11 @@
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
-        <v>44421.5868055556</v>
+        <v>44421.586805555555</v>
       </c>
       <c r="Q32">
         <v>812</v>
@@ -3018,7 +2417,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D33">
         <v>234</v>
@@ -3027,10 +2426,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G33">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
@@ -3044,11 +2443,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>44421.5763888889</v>
+        <v>44421.576388888891</v>
       </c>
       <c r="M33" s="3">
         <v>44421</v>
@@ -3059,11 +2458,11 @@
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>44421.6458333333</v>
+        <v>44421.645833333336</v>
       </c>
       <c r="Q33">
         <v>854</v>
@@ -3077,16 +2476,16 @@
         <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D34">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G34">
         <v>234</v>
@@ -3103,11 +2502,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>44421.6041666667</v>
+        <v>44421.604166666664</v>
       </c>
       <c r="M34" s="3">
         <v>44421</v>
@@ -3118,11 +2517,11 @@
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
-        <v>44421.7013888889</v>
+        <v>44421.701388888891</v>
       </c>
       <c r="Q34">
         <v>885</v>
@@ -3136,16 +2535,16 @@
         <v>26</v>
       </c>
       <c r="C35" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D35">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G35">
         <v>234</v>
@@ -3162,11 +2561,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>44421.6180555556</v>
+        <v>44421.618055555555</v>
       </c>
       <c r="M35" s="3">
         <v>44421</v>
@@ -3177,11 +2576,11 @@
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
-        <v>44421.6944444444</v>
+        <v>44421.694444444445</v>
       </c>
       <c r="Q35">
         <v>813</v>
@@ -3195,16 +2594,16 @@
         <v>26</v>
       </c>
       <c r="C36" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D36">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G36">
         <v>234</v>
@@ -3221,11 +2620,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>44421.6736111111</v>
+        <v>44421.673611111109</v>
       </c>
       <c r="M36" s="3">
         <v>44421</v>
@@ -3236,11 +2635,11 @@
       </c>
       <c r="O36">
         <f t="shared" si="3"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
-        <v>44421.7465277778</v>
+        <v>44421.746527777781</v>
       </c>
       <c r="Q36">
         <v>855</v>
@@ -3254,7 +2653,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D37">
         <v>234</v>
@@ -3263,10 +2662,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G37">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
         <v>10</v>
@@ -3280,11 +2679,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
-        <v>44421.7291666667</v>
+        <v>44421.729166666664</v>
       </c>
       <c r="M37" s="3">
         <v>44421</v>
@@ -3295,11 +2694,11 @@
       </c>
       <c r="O37">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
-        <v>44421.8020833333</v>
+        <v>44421.802083333336</v>
       </c>
       <c r="Q37">
         <v>864</v>
@@ -3313,10 +2712,10 @@
         <v>26</v>
       </c>
       <c r="C38" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D38">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -3339,11 +2738,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>44421.8333333333</v>
+        <v>44421.833333333336</v>
       </c>
       <c r="M38" s="3">
         <v>44421</v>
@@ -3381,10 +2780,10 @@
         <v>28</v>
       </c>
       <c r="F39" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G39">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H39" t="s">
         <v>10</v>
@@ -3413,11 +2812,11 @@
       </c>
       <c r="O39">
         <f t="shared" si="3"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
-        <v>44422.4097222222</v>
+        <v>44422.409722222219</v>
       </c>
       <c r="Q39">
         <v>890</v>
@@ -3431,7 +2830,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D40">
         <v>234</v>
@@ -3443,7 +2842,7 @@
         <v>0.375</v>
       </c>
       <c r="G40">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H40" t="s">
         <v>10</v>
@@ -3457,11 +2856,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>44422.3298611111</v>
+        <v>44422.329861111109</v>
       </c>
       <c r="M40" s="3">
         <v>44422</v>
@@ -3490,7 +2889,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D41">
         <v>234</v>
@@ -3499,7 +2898,7 @@
         <v>28</v>
       </c>
       <c r="F41" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G41">
         <v>235</v>
@@ -3516,11 +2915,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>44422.3333333333</v>
+        <v>44422.333333333336</v>
       </c>
       <c r="M41" s="3">
         <v>44422</v>
@@ -3531,11 +2930,11 @@
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
-        <v>44422.3958333333</v>
+        <v>44422.395833333336</v>
       </c>
       <c r="Q41">
         <v>680</v>
@@ -3549,16 +2948,16 @@
         <v>28</v>
       </c>
       <c r="C42" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D42">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G42">
         <v>234</v>
@@ -3575,11 +2974,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>44422.4027777778</v>
+        <v>44422.402777777781</v>
       </c>
       <c r="M42" s="3">
         <v>44422</v>
@@ -3590,11 +2989,11 @@
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
-        <v>44422.4513888889</v>
+        <v>44422.451388888891</v>
       </c>
       <c r="Q42">
         <v>873</v>
@@ -3608,7 +3007,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D43">
         <v>235</v>
@@ -3617,7 +3016,7 @@
         <v>28</v>
       </c>
       <c r="F43" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G43">
         <v>234</v>
@@ -3634,11 +3033,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>44422.4236111111</v>
+        <v>44422.423611111109</v>
       </c>
       <c r="M43" s="3">
         <v>44422</v>
@@ -3649,11 +3048,11 @@
       </c>
       <c r="O43">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
-        <v>44422.4861111111</v>
+        <v>44422.486111111109</v>
       </c>
       <c r="Q43">
         <v>681</v>
@@ -3670,13 +3069,13 @@
         <v>0.4375</v>
       </c>
       <c r="D44">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G44">
         <v>234</v>
@@ -3708,11 +3107,11 @@
       </c>
       <c r="O44">
         <f t="shared" si="3"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
-        <v>44422.5347222222</v>
+        <v>44422.534722222219</v>
       </c>
       <c r="Q44">
         <v>891</v>
@@ -3726,7 +3125,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D45">
         <v>234</v>
@@ -3735,10 +3134,10 @@
         <v>28</v>
       </c>
       <c r="F45" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G45">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H45" t="s">
         <v>10</v>
@@ -3752,11 +3151,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>44422.4791666667</v>
+        <v>44422.479166666664</v>
       </c>
       <c r="M45" s="3">
         <v>44422</v>
@@ -3767,11 +3166,11 @@
       </c>
       <c r="O45">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
-        <v>44422.5763888889</v>
+        <v>44422.576388888891</v>
       </c>
       <c r="Q45">
         <v>884</v>
@@ -3785,7 +3184,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D46">
         <v>234</v>
@@ -3794,10 +3193,10 @@
         <v>28</v>
       </c>
       <c r="F46" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G46">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H46" t="s">
         <v>10</v>
@@ -3811,11 +3210,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>44422.5138888889</v>
+        <v>44422.513888888891</v>
       </c>
       <c r="M46" s="3">
         <v>44422</v>
@@ -3826,11 +3225,11 @@
       </c>
       <c r="O46">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
-        <v>44422.5868055556</v>
+        <v>44422.586805555555</v>
       </c>
       <c r="Q46">
         <v>812</v>
@@ -3844,7 +3243,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D47">
         <v>234</v>
@@ -3853,10 +3252,10 @@
         <v>28</v>
       </c>
       <c r="F47" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G47">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
         <v>10</v>
@@ -3870,11 +3269,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>44422.5763888889</v>
+        <v>44422.576388888891</v>
       </c>
       <c r="M47" s="3">
         <v>44422</v>
@@ -3885,11 +3284,11 @@
       </c>
       <c r="O47">
         <f t="shared" si="3"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
-        <v>44422.6458333333</v>
+        <v>44422.645833333336</v>
       </c>
       <c r="Q47">
         <v>854</v>
@@ -3903,16 +3302,16 @@
         <v>28</v>
       </c>
       <c r="C48" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D48">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G48">
         <v>234</v>
@@ -3929,11 +3328,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>44422.6041666667</v>
+        <v>44422.604166666664</v>
       </c>
       <c r="M48" s="3">
         <v>44422</v>
@@ -3944,11 +3343,11 @@
       </c>
       <c r="O48">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
-        <v>44422.7013888889</v>
+        <v>44422.701388888891</v>
       </c>
       <c r="Q48">
         <v>885</v>
@@ -3962,16 +3361,16 @@
         <v>28</v>
       </c>
       <c r="C49" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D49">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
       </c>
       <c r="F49" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G49">
         <v>234</v>
@@ -3988,11 +3387,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>44422.6180555556</v>
+        <v>44422.618055555555</v>
       </c>
       <c r="M49" s="3">
         <v>44422</v>
@@ -4003,11 +3402,11 @@
       </c>
       <c r="O49">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
-        <v>44422.6944444444</v>
+        <v>44422.694444444445</v>
       </c>
       <c r="Q49">
         <v>813</v>
@@ -4021,16 +3420,16 @@
         <v>28</v>
       </c>
       <c r="C50" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D50">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G50">
         <v>234</v>
@@ -4047,11 +3446,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>44422.6736111111</v>
+        <v>44422.673611111109</v>
       </c>
       <c r="M50" s="3">
         <v>44422</v>
@@ -4062,11 +3461,11 @@
       </c>
       <c r="O50">
         <f t="shared" si="3"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
-        <v>44422.7465277778</v>
+        <v>44422.746527777781</v>
       </c>
       <c r="Q50">
         <v>855</v>
@@ -4080,7 +3479,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D51">
         <v>234</v>
@@ -4089,10 +3488,10 @@
         <v>28</v>
       </c>
       <c r="F51" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G51">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H51" t="s">
         <v>10</v>
@@ -4106,11 +3505,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>44422.7291666667</v>
+        <v>44422.729166666664</v>
       </c>
       <c r="M51" s="3">
         <v>44422</v>
@@ -4121,11 +3520,11 @@
       </c>
       <c r="O51">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
-        <v>44422.8020833333</v>
+        <v>44422.802083333336</v>
       </c>
       <c r="Q51">
         <v>864</v>
@@ -4139,10 +3538,10 @@
         <v>28</v>
       </c>
       <c r="C52" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D52">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
@@ -4165,11 +3564,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L52">
         <f t="shared" si="5"/>
-        <v>44422.8333333333</v>
+        <v>44422.833333333336</v>
       </c>
       <c r="M52" s="3">
         <v>44422</v>
@@ -4198,7 +3597,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D53">
         <v>234</v>
@@ -4210,7 +3609,7 @@
         <v>0.375</v>
       </c>
       <c r="G53">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H53" t="s">
         <v>10</v>
@@ -4224,11 +3623,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L53">
         <f t="shared" si="5"/>
-        <v>44423.3298611111</v>
+        <v>44423.329861111109</v>
       </c>
       <c r="M53" s="3">
         <v>44423</v>
@@ -4257,7 +3656,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D54">
         <v>234</v>
@@ -4266,7 +3665,7 @@
         <v>29</v>
       </c>
       <c r="F54" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G54">
         <v>235</v>
@@ -4283,11 +3682,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L54">
         <f t="shared" si="5"/>
-        <v>44423.3333333333</v>
+        <v>44423.333333333336</v>
       </c>
       <c r="M54" s="3">
         <v>44423</v>
@@ -4298,11 +3697,11 @@
       </c>
       <c r="O54">
         <f t="shared" si="3"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
-        <v>44423.3958333333</v>
+        <v>44423.395833333336</v>
       </c>
       <c r="Q54">
         <v>680</v>
@@ -4316,16 +3715,16 @@
         <v>29</v>
       </c>
       <c r="C55" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D55">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G55">
         <v>234</v>
@@ -4342,11 +3741,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L55">
         <f t="shared" si="5"/>
-        <v>44423.4027777778</v>
+        <v>44423.402777777781</v>
       </c>
       <c r="M55" s="3">
         <v>44423</v>
@@ -4357,11 +3756,11 @@
       </c>
       <c r="O55">
         <f t="shared" si="3"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P55">
         <f t="shared" si="4"/>
-        <v>44423.4513888889</v>
+        <v>44423.451388888891</v>
       </c>
       <c r="Q55">
         <v>873</v>
@@ -4375,7 +3774,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D56">
         <v>235</v>
@@ -4384,7 +3783,7 @@
         <v>29</v>
       </c>
       <c r="F56" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G56">
         <v>234</v>
@@ -4401,11 +3800,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L56">
         <f t="shared" si="5"/>
-        <v>44423.4236111111</v>
+        <v>44423.423611111109</v>
       </c>
       <c r="M56" s="3">
         <v>44423</v>
@@ -4416,11 +3815,11 @@
       </c>
       <c r="O56">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
-        <v>44423.4861111111</v>
+        <v>44423.486111111109</v>
       </c>
       <c r="Q56">
         <v>681</v>
@@ -4437,13 +3836,13 @@
         <v>0.4375</v>
       </c>
       <c r="D57">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
       </c>
       <c r="F57" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G57">
         <v>234</v>
@@ -4475,11 +3874,11 @@
       </c>
       <c r="O57">
         <f t="shared" si="3"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
-        <v>44423.5347222222</v>
+        <v>44423.534722222219</v>
       </c>
       <c r="Q57">
         <v>891</v>
@@ -4493,7 +3892,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D58">
         <v>234</v>
@@ -4502,10 +3901,10 @@
         <v>29</v>
       </c>
       <c r="F58" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G58">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H58" t="s">
         <v>10</v>
@@ -4519,11 +3918,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L58">
         <f t="shared" si="5"/>
-        <v>44423.4791666667</v>
+        <v>44423.479166666664</v>
       </c>
       <c r="M58" s="3">
         <v>44423</v>
@@ -4534,11 +3933,11 @@
       </c>
       <c r="O58">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
-        <v>44423.5763888889</v>
+        <v>44423.576388888891</v>
       </c>
       <c r="Q58">
         <v>884</v>
@@ -4552,7 +3951,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D59">
         <v>234</v>
@@ -4561,10 +3960,10 @@
         <v>29</v>
       </c>
       <c r="F59" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G59">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H59" t="s">
         <v>10</v>
@@ -4578,11 +3977,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L59">
         <f t="shared" si="5"/>
-        <v>44423.5138888889</v>
+        <v>44423.513888888891</v>
       </c>
       <c r="M59" s="3">
         <v>44423</v>
@@ -4593,11 +3992,11 @@
       </c>
       <c r="O59">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P59">
         <f t="shared" si="4"/>
-        <v>44423.5868055556</v>
+        <v>44423.586805555555</v>
       </c>
       <c r="Q59">
         <v>812</v>
@@ -4611,7 +4010,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D60">
         <v>234</v>
@@ -4620,10 +4019,10 @@
         <v>29</v>
       </c>
       <c r="F60" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G60">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
         <v>10</v>
@@ -4637,11 +4036,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L60">
         <f t="shared" si="5"/>
-        <v>44423.5763888889</v>
+        <v>44423.576388888891</v>
       </c>
       <c r="M60" s="3">
         <v>44423</v>
@@ -4652,11 +4051,11 @@
       </c>
       <c r="O60">
         <f t="shared" si="3"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P60">
         <f t="shared" si="4"/>
-        <v>44423.6458333333</v>
+        <v>44423.645833333336</v>
       </c>
       <c r="Q60">
         <v>854</v>
@@ -4670,16 +4069,16 @@
         <v>29</v>
       </c>
       <c r="C61" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D61">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
       </c>
       <c r="F61" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G61">
         <v>234</v>
@@ -4696,11 +4095,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L61">
         <f t="shared" si="5"/>
-        <v>44423.6041666667</v>
+        <v>44423.604166666664</v>
       </c>
       <c r="M61" s="3">
         <v>44423</v>
@@ -4711,11 +4110,11 @@
       </c>
       <c r="O61">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P61">
         <f t="shared" si="4"/>
-        <v>44423.7013888889</v>
+        <v>44423.701388888891</v>
       </c>
       <c r="Q61">
         <v>885</v>
@@ -4729,16 +4128,16 @@
         <v>29</v>
       </c>
       <c r="C62" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D62">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
         <v>29</v>
       </c>
       <c r="F62" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G62">
         <v>234</v>
@@ -4755,11 +4154,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L62">
         <f t="shared" si="5"/>
-        <v>44423.6180555556</v>
+        <v>44423.618055555555</v>
       </c>
       <c r="M62" s="3">
         <v>44423</v>
@@ -4770,11 +4169,11 @@
       </c>
       <c r="O62">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P62">
         <f t="shared" si="4"/>
-        <v>44423.6944444444</v>
+        <v>44423.694444444445</v>
       </c>
       <c r="Q62">
         <v>813</v>
@@ -4788,16 +4187,16 @@
         <v>29</v>
       </c>
       <c r="C63" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D63">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
         <v>29</v>
       </c>
       <c r="F63" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G63">
         <v>234</v>
@@ -4814,11 +4213,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>44423.6736111111</v>
+        <v>44423.673611111109</v>
       </c>
       <c r="M63" s="3">
         <v>44423</v>
@@ -4829,11 +4228,11 @@
       </c>
       <c r="O63">
         <f t="shared" si="3"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P63">
         <f t="shared" si="4"/>
-        <v>44423.7465277778</v>
+        <v>44423.746527777781</v>
       </c>
       <c r="Q63">
         <v>855</v>
@@ -4847,7 +4246,7 @@
         <v>29</v>
       </c>
       <c r="C64" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D64">
         <v>234</v>
@@ -4856,10 +4255,10 @@
         <v>29</v>
       </c>
       <c r="F64" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G64">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H64" t="s">
         <v>10</v>
@@ -4873,11 +4272,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
-        <v>44423.7291666667</v>
+        <v>44423.729166666664</v>
       </c>
       <c r="M64" s="3">
         <v>44423</v>
@@ -4888,11 +4287,11 @@
       </c>
       <c r="O64">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P64">
         <f t="shared" si="4"/>
-        <v>44423.8020833333</v>
+        <v>44423.802083333336</v>
       </c>
       <c r="Q64">
         <v>864</v>
@@ -4906,10 +4305,10 @@
         <v>29</v>
       </c>
       <c r="C65" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D65">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
         <v>29</v>
@@ -4932,11 +4331,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L65">
         <f t="shared" si="5"/>
-        <v>44423.8333333333</v>
+        <v>44423.833333333336</v>
       </c>
       <c r="M65" s="3">
         <v>44423</v>
@@ -4974,10 +4373,10 @@
         <v>30</v>
       </c>
       <c r="F66" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G66">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H66" t="s">
         <v>10</v>
@@ -5006,11 +4405,11 @@
       </c>
       <c r="O66">
         <f t="shared" ref="O66:O129" si="10">VALUE(F66)</f>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P66">
         <f t="shared" ref="P66:P129" si="11">N66+O66</f>
-        <v>44424.4097222222</v>
+        <v>44424.409722222219</v>
       </c>
       <c r="Q66">
         <v>890</v>
@@ -5024,7 +4423,7 @@
         <v>30</v>
       </c>
       <c r="C67" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D67">
         <v>234</v>
@@ -5036,7 +4435,7 @@
         <v>0.375</v>
       </c>
       <c r="G67">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H67" t="s">
         <v>10</v>
@@ -5050,11 +4449,11 @@
       </c>
       <c r="K67">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L67">
         <f t="shared" si="8"/>
-        <v>44424.3298611111</v>
+        <v>44424.329861111109</v>
       </c>
       <c r="M67" s="3">
         <v>44424</v>
@@ -5083,7 +4482,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D68">
         <v>234</v>
@@ -5092,7 +4491,7 @@
         <v>30</v>
       </c>
       <c r="F68" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G68">
         <v>235</v>
@@ -5109,11 +4508,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L68">
         <f t="shared" si="8"/>
-        <v>44424.3333333333</v>
+        <v>44424.333333333336</v>
       </c>
       <c r="M68" s="3">
         <v>44424</v>
@@ -5124,11 +4523,11 @@
       </c>
       <c r="O68">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P68">
         <f t="shared" si="11"/>
-        <v>44424.3958333333</v>
+        <v>44424.395833333336</v>
       </c>
       <c r="Q68">
         <v>680</v>
@@ -5142,16 +4541,16 @@
         <v>30</v>
       </c>
       <c r="C69" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D69">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G69">
         <v>234</v>
@@ -5168,11 +4567,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L69">
         <f t="shared" si="8"/>
-        <v>44424.4027777778</v>
+        <v>44424.402777777781</v>
       </c>
       <c r="M69" s="3">
         <v>44424</v>
@@ -5183,11 +4582,11 @@
       </c>
       <c r="O69">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P69">
         <f t="shared" si="11"/>
-        <v>44424.4513888889</v>
+        <v>44424.451388888891</v>
       </c>
       <c r="Q69">
         <v>873</v>
@@ -5201,7 +4600,7 @@
         <v>30</v>
       </c>
       <c r="C70" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D70">
         <v>235</v>
@@ -5210,7 +4609,7 @@
         <v>30</v>
       </c>
       <c r="F70" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G70">
         <v>234</v>
@@ -5227,11 +4626,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L70">
         <f t="shared" si="8"/>
-        <v>44424.4236111111</v>
+        <v>44424.423611111109</v>
       </c>
       <c r="M70" s="3">
         <v>44424</v>
@@ -5242,11 +4641,11 @@
       </c>
       <c r="O70">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P70">
         <f t="shared" si="11"/>
-        <v>44424.4861111111</v>
+        <v>44424.486111111109</v>
       </c>
       <c r="Q70">
         <v>681</v>
@@ -5263,13 +4662,13 @@
         <v>0.4375</v>
       </c>
       <c r="D71">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
       <c r="F71" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G71">
         <v>234</v>
@@ -5301,11 +4700,11 @@
       </c>
       <c r="O71">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P71">
         <f t="shared" si="11"/>
-        <v>44424.5347222222</v>
+        <v>44424.534722222219</v>
       </c>
       <c r="Q71">
         <v>891</v>
@@ -5319,7 +4718,7 @@
         <v>30</v>
       </c>
       <c r="C72" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D72">
         <v>234</v>
@@ -5328,10 +4727,10 @@
         <v>30</v>
       </c>
       <c r="F72" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G72">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H72" t="s">
         <v>10</v>
@@ -5345,11 +4744,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="7"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L72">
         <f t="shared" si="8"/>
-        <v>44424.4791666667</v>
+        <v>44424.479166666664</v>
       </c>
       <c r="M72" s="3">
         <v>44424</v>
@@ -5360,11 +4759,11 @@
       </c>
       <c r="O72">
         <f t="shared" si="10"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P72">
         <f t="shared" si="11"/>
-        <v>44424.5763888889</v>
+        <v>44424.576388888891</v>
       </c>
       <c r="Q72">
         <v>884</v>
@@ -5378,7 +4777,7 @@
         <v>30</v>
       </c>
       <c r="C73" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D73">
         <v>234</v>
@@ -5387,10 +4786,10 @@
         <v>30</v>
       </c>
       <c r="F73" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G73">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H73" t="s">
         <v>10</v>
@@ -5404,11 +4803,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="7"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L73">
         <f t="shared" si="8"/>
-        <v>44424.5138888889</v>
+        <v>44424.513888888891</v>
       </c>
       <c r="M73" s="3">
         <v>44424</v>
@@ -5419,11 +4818,11 @@
       </c>
       <c r="O73">
         <f t="shared" si="10"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P73">
         <f t="shared" si="11"/>
-        <v>44424.5868055556</v>
+        <v>44424.586805555555</v>
       </c>
       <c r="Q73">
         <v>812</v>
@@ -5437,7 +4836,7 @@
         <v>30</v>
       </c>
       <c r="C74" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D74">
         <v>234</v>
@@ -5446,10 +4845,10 @@
         <v>30</v>
       </c>
       <c r="F74" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G74">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H74" t="s">
         <v>10</v>
@@ -5463,11 +4862,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="7"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L74">
         <f t="shared" si="8"/>
-        <v>44424.5763888889</v>
+        <v>44424.576388888891</v>
       </c>
       <c r="M74" s="3">
         <v>44424</v>
@@ -5478,11 +4877,11 @@
       </c>
       <c r="O74">
         <f t="shared" si="10"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P74">
         <f t="shared" si="11"/>
-        <v>44424.6458333333</v>
+        <v>44424.645833333336</v>
       </c>
       <c r="Q74">
         <v>854</v>
@@ -5496,16 +4895,16 @@
         <v>30</v>
       </c>
       <c r="C75" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D75">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
       <c r="F75" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G75">
         <v>234</v>
@@ -5522,11 +4921,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="7"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L75">
         <f t="shared" si="8"/>
-        <v>44424.6041666667</v>
+        <v>44424.604166666664</v>
       </c>
       <c r="M75" s="3">
         <v>44424</v>
@@ -5537,11 +4936,11 @@
       </c>
       <c r="O75">
         <f t="shared" si="10"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P75">
         <f t="shared" si="11"/>
-        <v>44424.7013888889</v>
+        <v>44424.701388888891</v>
       </c>
       <c r="Q75">
         <v>885</v>
@@ -5555,16 +4954,16 @@
         <v>30</v>
       </c>
       <c r="C76" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D76">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G76">
         <v>234</v>
@@ -5581,11 +4980,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="7"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L76">
         <f t="shared" si="8"/>
-        <v>44424.6180555556</v>
+        <v>44424.618055555555</v>
       </c>
       <c r="M76" s="3">
         <v>44424</v>
@@ -5596,11 +4995,11 @@
       </c>
       <c r="O76">
         <f t="shared" si="10"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P76">
         <f t="shared" si="11"/>
-        <v>44424.6944444444</v>
+        <v>44424.694444444445</v>
       </c>
       <c r="Q76">
         <v>813</v>
@@ -5614,16 +5013,16 @@
         <v>30</v>
       </c>
       <c r="C77" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D77">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G77">
         <v>234</v>
@@ -5640,11 +5039,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="7"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L77">
         <f t="shared" si="8"/>
-        <v>44424.6736111111</v>
+        <v>44424.673611111109</v>
       </c>
       <c r="M77" s="3">
         <v>44424</v>
@@ -5655,11 +5054,11 @@
       </c>
       <c r="O77">
         <f t="shared" si="10"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P77">
         <f t="shared" si="11"/>
-        <v>44424.7465277778</v>
+        <v>44424.746527777781</v>
       </c>
       <c r="Q77">
         <v>855</v>
@@ -5673,7 +5072,7 @@
         <v>30</v>
       </c>
       <c r="C78" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D78">
         <v>234</v>
@@ -5682,10 +5081,10 @@
         <v>30</v>
       </c>
       <c r="F78" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G78">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H78" t="s">
         <v>10</v>
@@ -5699,11 +5098,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="7"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L78">
         <f t="shared" si="8"/>
-        <v>44424.7291666667</v>
+        <v>44424.729166666664</v>
       </c>
       <c r="M78" s="3">
         <v>44424</v>
@@ -5714,11 +5113,11 @@
       </c>
       <c r="O78">
         <f t="shared" si="10"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P78">
         <f t="shared" si="11"/>
-        <v>44424.8020833333</v>
+        <v>44424.802083333336</v>
       </c>
       <c r="Q78">
         <v>864</v>
@@ -5732,10 +5131,10 @@
         <v>30</v>
       </c>
       <c r="C79" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D79">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -5758,11 +5157,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="7"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L79">
         <f t="shared" si="8"/>
-        <v>44424.8333333333</v>
+        <v>44424.833333333336</v>
       </c>
       <c r="M79" s="3">
         <v>44424</v>
@@ -5800,10 +5199,10 @@
         <v>31</v>
       </c>
       <c r="F80" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G80">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
         <v>10</v>
@@ -5832,11 +5231,11 @@
       </c>
       <c r="O80">
         <f t="shared" si="10"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P80">
         <f t="shared" si="11"/>
-        <v>44425.4097222222</v>
+        <v>44425.409722222219</v>
       </c>
       <c r="Q80">
         <v>890</v>
@@ -5850,7 +5249,7 @@
         <v>31</v>
       </c>
       <c r="C81" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D81">
         <v>234</v>
@@ -5862,7 +5261,7 @@
         <v>0.375</v>
       </c>
       <c r="G81">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H81" t="s">
         <v>10</v>
@@ -5876,11 +5275,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L81">
         <f t="shared" si="8"/>
-        <v>44425.3298611111</v>
+        <v>44425.329861111109</v>
       </c>
       <c r="M81" s="3">
         <v>44425</v>
@@ -5909,7 +5308,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D82">
         <v>234</v>
@@ -5918,7 +5317,7 @@
         <v>31</v>
       </c>
       <c r="F82" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G82">
         <v>235</v>
@@ -5935,11 +5334,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L82">
         <f t="shared" si="8"/>
-        <v>44425.3333333333</v>
+        <v>44425.333333333336</v>
       </c>
       <c r="M82" s="3">
         <v>44425</v>
@@ -5950,11 +5349,11 @@
       </c>
       <c r="O82">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P82">
         <f t="shared" si="11"/>
-        <v>44425.3958333333</v>
+        <v>44425.395833333336</v>
       </c>
       <c r="Q82">
         <v>680</v>
@@ -5968,16 +5367,16 @@
         <v>31</v>
       </c>
       <c r="C83" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D83">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
         <v>31</v>
       </c>
       <c r="F83" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G83">
         <v>234</v>
@@ -5994,11 +5393,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L83">
         <f t="shared" si="8"/>
-        <v>44425.4027777778</v>
+        <v>44425.402777777781</v>
       </c>
       <c r="M83" s="3">
         <v>44425</v>
@@ -6009,11 +5408,11 @@
       </c>
       <c r="O83">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P83">
         <f t="shared" si="11"/>
-        <v>44425.4513888889</v>
+        <v>44425.451388888891</v>
       </c>
       <c r="Q83">
         <v>873</v>
@@ -6027,7 +5426,7 @@
         <v>31</v>
       </c>
       <c r="C84" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D84">
         <v>235</v>
@@ -6036,7 +5435,7 @@
         <v>31</v>
       </c>
       <c r="F84" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G84">
         <v>234</v>
@@ -6053,11 +5452,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L84">
         <f t="shared" si="8"/>
-        <v>44425.4236111111</v>
+        <v>44425.423611111109</v>
       </c>
       <c r="M84" s="3">
         <v>44425</v>
@@ -6068,11 +5467,11 @@
       </c>
       <c r="O84">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P84">
         <f t="shared" si="11"/>
-        <v>44425.4861111111</v>
+        <v>44425.486111111109</v>
       </c>
       <c r="Q84">
         <v>681</v>
@@ -6089,13 +5488,13 @@
         <v>0.4375</v>
       </c>
       <c r="D85">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
         <v>31</v>
       </c>
       <c r="F85" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G85">
         <v>234</v>
@@ -6127,11 +5526,11 @@
       </c>
       <c r="O85">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P85">
         <f t="shared" si="11"/>
-        <v>44425.5347222222</v>
+        <v>44425.534722222219</v>
       </c>
       <c r="Q85">
         <v>891</v>
@@ -6145,7 +5544,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D86">
         <v>234</v>
@@ -6154,10 +5553,10 @@
         <v>31</v>
       </c>
       <c r="F86" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G86">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H86" t="s">
         <v>10</v>
@@ -6171,11 +5570,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="7"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L86">
         <f t="shared" si="8"/>
-        <v>44425.4791666667</v>
+        <v>44425.479166666664</v>
       </c>
       <c r="M86" s="3">
         <v>44425</v>
@@ -6186,11 +5585,11 @@
       </c>
       <c r="O86">
         <f t="shared" si="10"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P86">
         <f t="shared" si="11"/>
-        <v>44425.5763888889</v>
+        <v>44425.576388888891</v>
       </c>
       <c r="Q86">
         <v>884</v>
@@ -6204,7 +5603,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D87">
         <v>234</v>
@@ -6213,10 +5612,10 @@
         <v>31</v>
       </c>
       <c r="F87" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G87">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H87" t="s">
         <v>10</v>
@@ -6230,11 +5629,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="7"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L87">
         <f t="shared" si="8"/>
-        <v>44425.5138888889</v>
+        <v>44425.513888888891</v>
       </c>
       <c r="M87" s="3">
         <v>44425</v>
@@ -6245,11 +5644,11 @@
       </c>
       <c r="O87">
         <f t="shared" si="10"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P87">
         <f t="shared" si="11"/>
-        <v>44425.5868055556</v>
+        <v>44425.586805555555</v>
       </c>
       <c r="Q87">
         <v>812</v>
@@ -6263,7 +5662,7 @@
         <v>31</v>
       </c>
       <c r="C88" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D88">
         <v>234</v>
@@ -6272,10 +5671,10 @@
         <v>31</v>
       </c>
       <c r="F88" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G88">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H88" t="s">
         <v>10</v>
@@ -6289,11 +5688,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="7"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L88">
         <f t="shared" si="8"/>
-        <v>44425.5763888889</v>
+        <v>44425.576388888891</v>
       </c>
       <c r="M88" s="3">
         <v>44425</v>
@@ -6304,11 +5703,11 @@
       </c>
       <c r="O88">
         <f t="shared" si="10"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P88">
         <f t="shared" si="11"/>
-        <v>44425.6458333333</v>
+        <v>44425.645833333336</v>
       </c>
       <c r="Q88">
         <v>854</v>
@@ -6322,16 +5721,16 @@
         <v>31</v>
       </c>
       <c r="C89" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D89">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E89" t="s">
         <v>31</v>
       </c>
       <c r="F89" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G89">
         <v>234</v>
@@ -6348,11 +5747,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="7"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L89">
         <f t="shared" si="8"/>
-        <v>44425.6041666667</v>
+        <v>44425.604166666664</v>
       </c>
       <c r="M89" s="3">
         <v>44425</v>
@@ -6363,11 +5762,11 @@
       </c>
       <c r="O89">
         <f t="shared" si="10"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P89">
         <f t="shared" si="11"/>
-        <v>44425.7013888889</v>
+        <v>44425.701388888891</v>
       </c>
       <c r="Q89">
         <v>885</v>
@@ -6381,16 +5780,16 @@
         <v>31</v>
       </c>
       <c r="C90" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D90">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E90" t="s">
         <v>31</v>
       </c>
       <c r="F90" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G90">
         <v>234</v>
@@ -6407,11 +5806,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="7"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L90">
         <f t="shared" si="8"/>
-        <v>44425.6180555556</v>
+        <v>44425.618055555555</v>
       </c>
       <c r="M90" s="3">
         <v>44425</v>
@@ -6422,11 +5821,11 @@
       </c>
       <c r="O90">
         <f t="shared" si="10"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P90">
         <f t="shared" si="11"/>
-        <v>44425.6944444444</v>
+        <v>44425.694444444445</v>
       </c>
       <c r="Q90">
         <v>813</v>
@@ -6440,16 +5839,16 @@
         <v>31</v>
       </c>
       <c r="C91" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D91">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
         <v>31</v>
       </c>
       <c r="F91" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G91">
         <v>234</v>
@@ -6466,11 +5865,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="7"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L91">
         <f t="shared" si="8"/>
-        <v>44425.6736111111</v>
+        <v>44425.673611111109</v>
       </c>
       <c r="M91" s="3">
         <v>44425</v>
@@ -6481,11 +5880,11 @@
       </c>
       <c r="O91">
         <f t="shared" si="10"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P91">
         <f t="shared" si="11"/>
-        <v>44425.7465277778</v>
+        <v>44425.746527777781</v>
       </c>
       <c r="Q91">
         <v>855</v>
@@ -6499,7 +5898,7 @@
         <v>31</v>
       </c>
       <c r="C92" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D92">
         <v>234</v>
@@ -6508,10 +5907,10 @@
         <v>31</v>
       </c>
       <c r="F92" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G92">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H92" t="s">
         <v>10</v>
@@ -6525,11 +5924,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="7"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L92">
         <f t="shared" si="8"/>
-        <v>44425.7291666667</v>
+        <v>44425.729166666664</v>
       </c>
       <c r="M92" s="3">
         <v>44425</v>
@@ -6540,11 +5939,11 @@
       </c>
       <c r="O92">
         <f t="shared" si="10"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P92">
         <f t="shared" si="11"/>
-        <v>44425.8020833333</v>
+        <v>44425.802083333336</v>
       </c>
       <c r="Q92">
         <v>864</v>
@@ -6558,10 +5957,10 @@
         <v>31</v>
       </c>
       <c r="C93" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D93">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E93" t="s">
         <v>31</v>
@@ -6584,11 +5983,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="7"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L93">
         <f t="shared" si="8"/>
-        <v>44425.8333333333</v>
+        <v>44425.833333333336</v>
       </c>
       <c r="M93" s="3">
         <v>44425</v>
@@ -6626,10 +6025,10 @@
         <v>32</v>
       </c>
       <c r="F94" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G94">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H94" t="s">
         <v>10</v>
@@ -6658,11 +6057,11 @@
       </c>
       <c r="O94">
         <f t="shared" si="10"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P94">
         <f t="shared" si="11"/>
-        <v>44426.4097222222</v>
+        <v>44426.409722222219</v>
       </c>
       <c r="Q94">
         <v>890</v>
@@ -6676,7 +6075,7 @@
         <v>32</v>
       </c>
       <c r="C95" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D95">
         <v>234</v>
@@ -6688,7 +6087,7 @@
         <v>0.375</v>
       </c>
       <c r="G95">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
@@ -6702,11 +6101,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L95">
         <f t="shared" si="8"/>
-        <v>44426.3298611111</v>
+        <v>44426.329861111109</v>
       </c>
       <c r="M95" s="3">
         <v>44426</v>
@@ -6735,7 +6134,7 @@
         <v>32</v>
       </c>
       <c r="C96" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D96">
         <v>234</v>
@@ -6744,7 +6143,7 @@
         <v>32</v>
       </c>
       <c r="F96" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G96">
         <v>235</v>
@@ -6761,11 +6160,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L96">
         <f t="shared" si="8"/>
-        <v>44426.3333333333</v>
+        <v>44426.333333333336</v>
       </c>
       <c r="M96" s="3">
         <v>44426</v>
@@ -6776,11 +6175,11 @@
       </c>
       <c r="O96">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P96">
         <f t="shared" si="11"/>
-        <v>44426.3958333333</v>
+        <v>44426.395833333336</v>
       </c>
       <c r="Q96">
         <v>680</v>
@@ -6794,16 +6193,16 @@
         <v>32</v>
       </c>
       <c r="C97" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D97">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E97" t="s">
         <v>32</v>
       </c>
       <c r="F97" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G97">
         <v>234</v>
@@ -6820,11 +6219,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L97">
         <f t="shared" si="8"/>
-        <v>44426.4027777778</v>
+        <v>44426.402777777781</v>
       </c>
       <c r="M97" s="3">
         <v>44426</v>
@@ -6835,11 +6234,11 @@
       </c>
       <c r="O97">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P97">
         <f t="shared" si="11"/>
-        <v>44426.4513888889</v>
+        <v>44426.451388888891</v>
       </c>
       <c r="Q97">
         <v>873</v>
@@ -6853,7 +6252,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D98">
         <v>235</v>
@@ -6862,7 +6261,7 @@
         <v>32</v>
       </c>
       <c r="F98" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G98">
         <v>234</v>
@@ -6879,11 +6278,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L98">
         <f t="shared" si="8"/>
-        <v>44426.4236111111</v>
+        <v>44426.423611111109</v>
       </c>
       <c r="M98" s="3">
         <v>44426</v>
@@ -6894,11 +6293,11 @@
       </c>
       <c r="O98">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P98">
         <f t="shared" si="11"/>
-        <v>44426.4861111111</v>
+        <v>44426.486111111109</v>
       </c>
       <c r="Q98">
         <v>681</v>
@@ -6915,13 +6314,13 @@
         <v>0.4375</v>
       </c>
       <c r="D99">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E99" t="s">
         <v>32</v>
       </c>
       <c r="F99" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G99">
         <v>234</v>
@@ -6953,11 +6352,11 @@
       </c>
       <c r="O99">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P99">
         <f t="shared" si="11"/>
-        <v>44426.5347222222</v>
+        <v>44426.534722222219</v>
       </c>
       <c r="Q99">
         <v>891</v>
@@ -6971,7 +6370,7 @@
         <v>32</v>
       </c>
       <c r="C100" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D100">
         <v>234</v>
@@ -6980,10 +6379,10 @@
         <v>32</v>
       </c>
       <c r="F100" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G100">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H100" t="s">
         <v>10</v>
@@ -6997,11 +6396,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="7"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L100">
         <f t="shared" si="8"/>
-        <v>44426.4791666667</v>
+        <v>44426.479166666664</v>
       </c>
       <c r="M100" s="3">
         <v>44426</v>
@@ -7012,11 +6411,11 @@
       </c>
       <c r="O100">
         <f t="shared" si="10"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P100">
         <f t="shared" si="11"/>
-        <v>44426.5763888889</v>
+        <v>44426.576388888891</v>
       </c>
       <c r="Q100">
         <v>884</v>
@@ -7030,7 +6429,7 @@
         <v>32</v>
       </c>
       <c r="C101" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D101">
         <v>234</v>
@@ -7039,10 +6438,10 @@
         <v>32</v>
       </c>
       <c r="F101" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G101">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H101" t="s">
         <v>10</v>
@@ -7056,11 +6455,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="7"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L101">
         <f t="shared" si="8"/>
-        <v>44426.5138888889</v>
+        <v>44426.513888888891</v>
       </c>
       <c r="M101" s="3">
         <v>44426</v>
@@ -7071,11 +6470,11 @@
       </c>
       <c r="O101">
         <f t="shared" si="10"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P101">
         <f t="shared" si="11"/>
-        <v>44426.5868055556</v>
+        <v>44426.586805555555</v>
       </c>
       <c r="Q101">
         <v>812</v>
@@ -7089,7 +6488,7 @@
         <v>32</v>
       </c>
       <c r="C102" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D102">
         <v>234</v>
@@ -7098,10 +6497,10 @@
         <v>32</v>
       </c>
       <c r="F102" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G102">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H102" t="s">
         <v>10</v>
@@ -7115,11 +6514,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="7"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L102">
         <f t="shared" si="8"/>
-        <v>44426.5763888889</v>
+        <v>44426.576388888891</v>
       </c>
       <c r="M102" s="3">
         <v>44426</v>
@@ -7130,11 +6529,11 @@
       </c>
       <c r="O102">
         <f t="shared" si="10"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P102">
         <f t="shared" si="11"/>
-        <v>44426.6458333333</v>
+        <v>44426.645833333336</v>
       </c>
       <c r="Q102">
         <v>854</v>
@@ -7148,16 +6547,16 @@
         <v>32</v>
       </c>
       <c r="C103" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D103">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E103" t="s">
         <v>32</v>
       </c>
       <c r="F103" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G103">
         <v>234</v>
@@ -7174,11 +6573,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="7"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L103">
         <f t="shared" si="8"/>
-        <v>44426.6041666667</v>
+        <v>44426.604166666664</v>
       </c>
       <c r="M103" s="3">
         <v>44426</v>
@@ -7189,11 +6588,11 @@
       </c>
       <c r="O103">
         <f t="shared" si="10"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P103">
         <f t="shared" si="11"/>
-        <v>44426.7013888889</v>
+        <v>44426.701388888891</v>
       </c>
       <c r="Q103">
         <v>885</v>
@@ -7207,16 +6606,16 @@
         <v>32</v>
       </c>
       <c r="C104" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D104">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E104" t="s">
         <v>32</v>
       </c>
       <c r="F104" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G104">
         <v>234</v>
@@ -7233,11 +6632,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="7"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L104">
         <f t="shared" si="8"/>
-        <v>44426.6180555556</v>
+        <v>44426.618055555555</v>
       </c>
       <c r="M104" s="3">
         <v>44426</v>
@@ -7248,11 +6647,11 @@
       </c>
       <c r="O104">
         <f t="shared" si="10"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P104">
         <f t="shared" si="11"/>
-        <v>44426.6944444444</v>
+        <v>44426.694444444445</v>
       </c>
       <c r="Q104">
         <v>813</v>
@@ -7266,16 +6665,16 @@
         <v>32</v>
       </c>
       <c r="C105" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D105">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E105" t="s">
         <v>32</v>
       </c>
       <c r="F105" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G105">
         <v>234</v>
@@ -7292,11 +6691,11 @@
       </c>
       <c r="K105">
         <f t="shared" si="7"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L105">
         <f t="shared" si="8"/>
-        <v>44426.6736111111</v>
+        <v>44426.673611111109</v>
       </c>
       <c r="M105" s="3">
         <v>44426</v>
@@ -7307,11 +6706,11 @@
       </c>
       <c r="O105">
         <f t="shared" si="10"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P105">
         <f t="shared" si="11"/>
-        <v>44426.7465277778</v>
+        <v>44426.746527777781</v>
       </c>
       <c r="Q105">
         <v>855</v>
@@ -7325,7 +6724,7 @@
         <v>32</v>
       </c>
       <c r="C106" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D106">
         <v>234</v>
@@ -7334,10 +6733,10 @@
         <v>32</v>
       </c>
       <c r="F106" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G106">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H106" t="s">
         <v>10</v>
@@ -7351,11 +6750,11 @@
       </c>
       <c r="K106">
         <f t="shared" si="7"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L106">
         <f t="shared" si="8"/>
-        <v>44426.7291666667</v>
+        <v>44426.729166666664</v>
       </c>
       <c r="M106" s="3">
         <v>44426</v>
@@ -7366,11 +6765,11 @@
       </c>
       <c r="O106">
         <f t="shared" si="10"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P106">
         <f t="shared" si="11"/>
-        <v>44426.8020833333</v>
+        <v>44426.802083333336</v>
       </c>
       <c r="Q106">
         <v>864</v>
@@ -7384,7 +6783,7 @@
         <v>32</v>
       </c>
       <c r="C107" s="2">
-        <v>0.777777777777778</v>
+        <v>0.77777777777777801</v>
       </c>
       <c r="D107">
         <v>234</v>
@@ -7396,7 +6795,7 @@
         <v>0.875</v>
       </c>
       <c r="G107">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H107" t="s">
         <v>10</v>
@@ -7410,11 +6809,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="7"/>
-        <v>0.777777777777778</v>
+        <v>0.77777777777777801</v>
       </c>
       <c r="L107">
         <f t="shared" si="8"/>
-        <v>44426.7777777778</v>
+        <v>44426.777777777781</v>
       </c>
       <c r="M107" s="3">
         <v>44426</v>
@@ -7443,10 +6842,10 @@
         <v>32</v>
       </c>
       <c r="C108" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D108">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
         <v>32</v>
@@ -7469,11 +6868,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="7"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L108">
         <f t="shared" si="8"/>
-        <v>44426.8333333333</v>
+        <v>44426.833333333336</v>
       </c>
       <c r="M108" s="3">
         <v>44426</v>
@@ -7502,10 +6901,10 @@
         <v>32</v>
       </c>
       <c r="C109" s="2">
-        <v>0.902777777777778</v>
+        <v>0.90277777777777801</v>
       </c>
       <c r="D109">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E109" t="s">
         <v>35</v>
@@ -7528,11 +6927,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="7"/>
-        <v>0.902777777777778</v>
+        <v>0.90277777777777801</v>
       </c>
       <c r="L109">
         <f t="shared" si="8"/>
-        <v>44426.9027777778</v>
+        <v>44426.902777777781</v>
       </c>
       <c r="M109" s="3">
         <v>44427</v>
@@ -7570,10 +6969,10 @@
         <v>35</v>
       </c>
       <c r="F110" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G110">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H110" t="s">
         <v>10</v>
@@ -7602,11 +7001,11 @@
       </c>
       <c r="O110">
         <f t="shared" si="10"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P110">
         <f t="shared" si="11"/>
-        <v>44427.4097222222</v>
+        <v>44427.409722222219</v>
       </c>
       <c r="Q110">
         <v>890</v>
@@ -7620,7 +7019,7 @@
         <v>35</v>
       </c>
       <c r="C111" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D111">
         <v>234</v>
@@ -7632,7 +7031,7 @@
         <v>0.375</v>
       </c>
       <c r="G111">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H111" t="s">
         <v>10</v>
@@ -7646,11 +7045,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L111">
         <f t="shared" si="8"/>
-        <v>44427.3298611111</v>
+        <v>44427.329861111109</v>
       </c>
       <c r="M111" s="3">
         <v>44427</v>
@@ -7679,7 +7078,7 @@
         <v>35</v>
       </c>
       <c r="C112" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D112">
         <v>234</v>
@@ -7688,7 +7087,7 @@
         <v>35</v>
       </c>
       <c r="F112" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G112">
         <v>235</v>
@@ -7705,11 +7104,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L112">
         <f t="shared" si="8"/>
-        <v>44427.3333333333</v>
+        <v>44427.333333333336</v>
       </c>
       <c r="M112" s="3">
         <v>44427</v>
@@ -7720,11 +7119,11 @@
       </c>
       <c r="O112">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P112">
         <f t="shared" si="11"/>
-        <v>44427.3958333333</v>
+        <v>44427.395833333336</v>
       </c>
       <c r="Q112">
         <v>680</v>
@@ -7738,16 +7137,16 @@
         <v>35</v>
       </c>
       <c r="C113" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D113">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E113" t="s">
         <v>35</v>
       </c>
       <c r="F113" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G113">
         <v>234</v>
@@ -7764,11 +7163,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L113">
         <f t="shared" si="8"/>
-        <v>44427.4027777778</v>
+        <v>44427.402777777781</v>
       </c>
       <c r="M113" s="3">
         <v>44427</v>
@@ -7779,11 +7178,11 @@
       </c>
       <c r="O113">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P113">
         <f t="shared" si="11"/>
-        <v>44427.4513888889</v>
+        <v>44427.451388888891</v>
       </c>
       <c r="Q113">
         <v>873</v>
@@ -7797,7 +7196,7 @@
         <v>35</v>
       </c>
       <c r="C114" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D114">
         <v>235</v>
@@ -7806,7 +7205,7 @@
         <v>35</v>
       </c>
       <c r="F114" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G114">
         <v>234</v>
@@ -7823,11 +7222,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L114">
         <f t="shared" si="8"/>
-        <v>44427.4236111111</v>
+        <v>44427.423611111109</v>
       </c>
       <c r="M114" s="3">
         <v>44427</v>
@@ -7838,11 +7237,11 @@
       </c>
       <c r="O114">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P114">
         <f t="shared" si="11"/>
-        <v>44427.4861111111</v>
+        <v>44427.486111111109</v>
       </c>
       <c r="Q114">
         <v>681</v>
@@ -7859,13 +7258,13 @@
         <v>0.4375</v>
       </c>
       <c r="D115">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E115" t="s">
         <v>35</v>
       </c>
       <c r="F115" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G115">
         <v>234</v>
@@ -7897,11 +7296,11 @@
       </c>
       <c r="O115">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P115">
         <f t="shared" si="11"/>
-        <v>44427.5347222222</v>
+        <v>44427.534722222219</v>
       </c>
       <c r="Q115">
         <v>891</v>
@@ -7915,7 +7314,7 @@
         <v>35</v>
       </c>
       <c r="C116" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D116">
         <v>234</v>
@@ -7924,10 +7323,10 @@
         <v>35</v>
       </c>
       <c r="F116" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G116">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H116" t="s">
         <v>10</v>
@@ -7941,11 +7340,11 @@
       </c>
       <c r="K116">
         <f t="shared" si="7"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L116">
         <f t="shared" si="8"/>
-        <v>44427.4791666667</v>
+        <v>44427.479166666664</v>
       </c>
       <c r="M116" s="3">
         <v>44427</v>
@@ -7956,11 +7355,11 @@
       </c>
       <c r="O116">
         <f t="shared" si="10"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P116">
         <f t="shared" si="11"/>
-        <v>44427.5763888889</v>
+        <v>44427.576388888891</v>
       </c>
       <c r="Q116">
         <v>884</v>
@@ -7974,7 +7373,7 @@
         <v>35</v>
       </c>
       <c r="C117" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D117">
         <v>234</v>
@@ -7983,10 +7382,10 @@
         <v>35</v>
       </c>
       <c r="F117" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G117">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H117" t="s">
         <v>10</v>
@@ -8000,11 +7399,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="7"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L117">
         <f t="shared" si="8"/>
-        <v>44427.5138888889</v>
+        <v>44427.513888888891</v>
       </c>
       <c r="M117" s="3">
         <v>44427</v>
@@ -8015,11 +7414,11 @@
       </c>
       <c r="O117">
         <f t="shared" si="10"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P117">
         <f t="shared" si="11"/>
-        <v>44427.5868055556</v>
+        <v>44427.586805555555</v>
       </c>
       <c r="Q117">
         <v>812</v>
@@ -8033,7 +7432,7 @@
         <v>35</v>
       </c>
       <c r="C118" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D118">
         <v>234</v>
@@ -8042,10 +7441,10 @@
         <v>35</v>
       </c>
       <c r="F118" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G118">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H118" t="s">
         <v>10</v>
@@ -8059,11 +7458,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="7"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L118">
         <f t="shared" si="8"/>
-        <v>44427.5763888889</v>
+        <v>44427.576388888891</v>
       </c>
       <c r="M118" s="3">
         <v>44427</v>
@@ -8074,11 +7473,11 @@
       </c>
       <c r="O118">
         <f t="shared" si="10"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P118">
         <f t="shared" si="11"/>
-        <v>44427.6458333333</v>
+        <v>44427.645833333336</v>
       </c>
       <c r="Q118">
         <v>854</v>
@@ -8092,16 +7491,16 @@
         <v>35</v>
       </c>
       <c r="C119" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D119">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E119" t="s">
         <v>35</v>
       </c>
       <c r="F119" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G119">
         <v>234</v>
@@ -8118,11 +7517,11 @@
       </c>
       <c r="K119">
         <f t="shared" si="7"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L119">
         <f t="shared" si="8"/>
-        <v>44427.6041666667</v>
+        <v>44427.604166666664</v>
       </c>
       <c r="M119" s="3">
         <v>44427</v>
@@ -8133,11 +7532,11 @@
       </c>
       <c r="O119">
         <f t="shared" si="10"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P119">
         <f t="shared" si="11"/>
-        <v>44427.7013888889</v>
+        <v>44427.701388888891</v>
       </c>
       <c r="Q119">
         <v>885</v>
@@ -8151,16 +7550,16 @@
         <v>35</v>
       </c>
       <c r="C120" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D120">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E120" t="s">
         <v>35</v>
       </c>
       <c r="F120" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G120">
         <v>234</v>
@@ -8177,11 +7576,11 @@
       </c>
       <c r="K120">
         <f t="shared" si="7"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L120">
         <f t="shared" si="8"/>
-        <v>44427.6180555556</v>
+        <v>44427.618055555555</v>
       </c>
       <c r="M120" s="3">
         <v>44427</v>
@@ -8192,11 +7591,11 @@
       </c>
       <c r="O120">
         <f t="shared" si="10"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P120">
         <f t="shared" si="11"/>
-        <v>44427.6944444444</v>
+        <v>44427.694444444445</v>
       </c>
       <c r="Q120">
         <v>813</v>
@@ -8210,16 +7609,16 @@
         <v>35</v>
       </c>
       <c r="C121" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D121">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E121" t="s">
         <v>35</v>
       </c>
       <c r="F121" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G121">
         <v>234</v>
@@ -8236,11 +7635,11 @@
       </c>
       <c r="K121">
         <f t="shared" si="7"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L121">
         <f t="shared" si="8"/>
-        <v>44427.6736111111</v>
+        <v>44427.673611111109</v>
       </c>
       <c r="M121" s="3">
         <v>44427</v>
@@ -8251,11 +7650,11 @@
       </c>
       <c r="O121">
         <f t="shared" si="10"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P121">
         <f t="shared" si="11"/>
-        <v>44427.7465277778</v>
+        <v>44427.746527777781</v>
       </c>
       <c r="Q121">
         <v>855</v>
@@ -8269,7 +7668,7 @@
         <v>35</v>
       </c>
       <c r="C122" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D122">
         <v>234</v>
@@ -8278,10 +7677,10 @@
         <v>35</v>
       </c>
       <c r="F122" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G122">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H122" t="s">
         <v>10</v>
@@ -8295,11 +7694,11 @@
       </c>
       <c r="K122">
         <f t="shared" si="7"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L122">
         <f t="shared" si="8"/>
-        <v>44427.7291666667</v>
+        <v>44427.729166666664</v>
       </c>
       <c r="M122" s="3">
         <v>44427</v>
@@ -8310,11 +7709,11 @@
       </c>
       <c r="O122">
         <f t="shared" si="10"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P122">
         <f t="shared" si="11"/>
-        <v>44427.8020833333</v>
+        <v>44427.802083333336</v>
       </c>
       <c r="Q122">
         <v>864</v>
@@ -8328,10 +7727,10 @@
         <v>35</v>
       </c>
       <c r="C123" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D123">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E123" t="s">
         <v>35</v>
@@ -8354,11 +7753,11 @@
       </c>
       <c r="K123">
         <f t="shared" si="7"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L123">
         <f t="shared" si="8"/>
-        <v>44427.8333333333</v>
+        <v>44427.833333333336</v>
       </c>
       <c r="M123" s="3">
         <v>44427</v>
@@ -8396,10 +7795,10 @@
         <v>36</v>
       </c>
       <c r="F124" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G124">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H124" t="s">
         <v>10</v>
@@ -8428,11 +7827,11 @@
       </c>
       <c r="O124">
         <f t="shared" si="10"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P124">
         <f t="shared" si="11"/>
-        <v>44428.4097222222</v>
+        <v>44428.409722222219</v>
       </c>
       <c r="Q124">
         <v>890</v>
@@ -8446,7 +7845,7 @@
         <v>36</v>
       </c>
       <c r="C125" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D125">
         <v>234</v>
@@ -8458,7 +7857,7 @@
         <v>0.375</v>
       </c>
       <c r="G125">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H125" t="s">
         <v>10</v>
@@ -8472,11 +7871,11 @@
       </c>
       <c r="K125">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L125">
         <f t="shared" si="8"/>
-        <v>44428.3298611111</v>
+        <v>44428.329861111109</v>
       </c>
       <c r="M125" s="3">
         <v>44428</v>
@@ -8505,7 +7904,7 @@
         <v>36</v>
       </c>
       <c r="C126" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D126">
         <v>234</v>
@@ -8514,7 +7913,7 @@
         <v>36</v>
       </c>
       <c r="F126" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G126">
         <v>235</v>
@@ -8531,11 +7930,11 @@
       </c>
       <c r="K126">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L126">
         <f t="shared" si="8"/>
-        <v>44428.3333333333</v>
+        <v>44428.333333333336</v>
       </c>
       <c r="M126" s="3">
         <v>44428</v>
@@ -8546,11 +7945,11 @@
       </c>
       <c r="O126">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P126">
         <f t="shared" si="11"/>
-        <v>44428.3958333333</v>
+        <v>44428.395833333336</v>
       </c>
       <c r="Q126">
         <v>680</v>
@@ -8564,16 +7963,16 @@
         <v>36</v>
       </c>
       <c r="C127" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D127">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
       </c>
       <c r="F127" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G127">
         <v>234</v>
@@ -8590,11 +7989,11 @@
       </c>
       <c r="K127">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L127">
         <f t="shared" si="8"/>
-        <v>44428.4027777778</v>
+        <v>44428.402777777781</v>
       </c>
       <c r="M127" s="3">
         <v>44428</v>
@@ -8605,11 +8004,11 @@
       </c>
       <c r="O127">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P127">
         <f t="shared" si="11"/>
-        <v>44428.4513888889</v>
+        <v>44428.451388888891</v>
       </c>
       <c r="Q127">
         <v>873</v>
@@ -8623,7 +8022,7 @@
         <v>36</v>
       </c>
       <c r="C128" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D128">
         <v>235</v>
@@ -8632,7 +8031,7 @@
         <v>36</v>
       </c>
       <c r="F128" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G128">
         <v>234</v>
@@ -8649,11 +8048,11 @@
       </c>
       <c r="K128">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L128">
         <f t="shared" si="8"/>
-        <v>44428.4236111111</v>
+        <v>44428.423611111109</v>
       </c>
       <c r="M128" s="3">
         <v>44428</v>
@@ -8664,11 +8063,11 @@
       </c>
       <c r="O128">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P128">
         <f t="shared" si="11"/>
-        <v>44428.4861111111</v>
+        <v>44428.486111111109</v>
       </c>
       <c r="Q128">
         <v>681</v>
@@ -8685,13 +8084,13 @@
         <v>0.4375</v>
       </c>
       <c r="D129">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E129" t="s">
         <v>36</v>
       </c>
       <c r="F129" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G129">
         <v>234</v>
@@ -8723,11 +8122,11 @@
       </c>
       <c r="O129">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P129">
         <f t="shared" si="11"/>
-        <v>44428.5347222222</v>
+        <v>44428.534722222219</v>
       </c>
       <c r="Q129">
         <v>891</v>
@@ -8741,7 +8140,7 @@
         <v>36</v>
       </c>
       <c r="C130" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D130">
         <v>234</v>
@@ -8750,10 +8149,10 @@
         <v>36</v>
       </c>
       <c r="F130" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G130">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H130" t="s">
         <v>10</v>
@@ -8767,11 +8166,11 @@
       </c>
       <c r="K130">
         <f t="shared" ref="K130:K193" si="13">VALUE(C130)</f>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L130">
         <f t="shared" ref="L130:L193" si="14">J130+K130</f>
-        <v>44428.4791666667</v>
+        <v>44428.479166666664</v>
       </c>
       <c r="M130" s="3">
         <v>44428</v>
@@ -8782,11 +8181,11 @@
       </c>
       <c r="O130">
         <f t="shared" ref="O130:O193" si="16">VALUE(F130)</f>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P130">
         <f t="shared" ref="P130:P193" si="17">N130+O130</f>
-        <v>44428.5763888889</v>
+        <v>44428.576388888891</v>
       </c>
       <c r="Q130">
         <v>884</v>
@@ -8800,7 +8199,7 @@
         <v>36</v>
       </c>
       <c r="C131" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D131">
         <v>234</v>
@@ -8809,10 +8208,10 @@
         <v>36</v>
       </c>
       <c r="F131" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G131">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H131" t="s">
         <v>10</v>
@@ -8826,11 +8225,11 @@
       </c>
       <c r="K131">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L131">
         <f t="shared" si="14"/>
-        <v>44428.5138888889</v>
+        <v>44428.513888888891</v>
       </c>
       <c r="M131" s="3">
         <v>44428</v>
@@ -8841,11 +8240,11 @@
       </c>
       <c r="O131">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P131">
         <f t="shared" si="17"/>
-        <v>44428.5868055556</v>
+        <v>44428.586805555555</v>
       </c>
       <c r="Q131">
         <v>812</v>
@@ -8859,7 +8258,7 @@
         <v>36</v>
       </c>
       <c r="C132" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D132">
         <v>234</v>
@@ -8868,10 +8267,10 @@
         <v>36</v>
       </c>
       <c r="F132" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G132">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H132" t="s">
         <v>10</v>
@@ -8885,11 +8284,11 @@
       </c>
       <c r="K132">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L132">
         <f t="shared" si="14"/>
-        <v>44428.5763888889</v>
+        <v>44428.576388888891</v>
       </c>
       <c r="M132" s="3">
         <v>44428</v>
@@ -8900,11 +8299,11 @@
       </c>
       <c r="O132">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P132">
         <f t="shared" si="17"/>
-        <v>44428.6458333333</v>
+        <v>44428.645833333336</v>
       </c>
       <c r="Q132">
         <v>854</v>
@@ -8918,16 +8317,16 @@
         <v>36</v>
       </c>
       <c r="C133" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D133">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133" t="s">
         <v>36</v>
       </c>
       <c r="F133" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G133">
         <v>234</v>
@@ -8944,11 +8343,11 @@
       </c>
       <c r="K133">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L133">
         <f t="shared" si="14"/>
-        <v>44428.6041666667</v>
+        <v>44428.604166666664</v>
       </c>
       <c r="M133" s="3">
         <v>44428</v>
@@ -8959,11 +8358,11 @@
       </c>
       <c r="O133">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P133">
         <f t="shared" si="17"/>
-        <v>44428.7013888889</v>
+        <v>44428.701388888891</v>
       </c>
       <c r="Q133">
         <v>885</v>
@@ -8977,16 +8376,16 @@
         <v>36</v>
       </c>
       <c r="C134" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D134">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E134" t="s">
         <v>36</v>
       </c>
       <c r="F134" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G134">
         <v>234</v>
@@ -9003,11 +8402,11 @@
       </c>
       <c r="K134">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L134">
         <f t="shared" si="14"/>
-        <v>44428.6180555556</v>
+        <v>44428.618055555555</v>
       </c>
       <c r="M134" s="3">
         <v>44428</v>
@@ -9018,11 +8417,11 @@
       </c>
       <c r="O134">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P134">
         <f t="shared" si="17"/>
-        <v>44428.6944444444</v>
+        <v>44428.694444444445</v>
       </c>
       <c r="Q134">
         <v>813</v>
@@ -9036,16 +8435,16 @@
         <v>36</v>
       </c>
       <c r="C135" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D135">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E135" t="s">
         <v>36</v>
       </c>
       <c r="F135" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G135">
         <v>234</v>
@@ -9062,11 +8461,11 @@
       </c>
       <c r="K135">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L135">
         <f t="shared" si="14"/>
-        <v>44428.6736111111</v>
+        <v>44428.673611111109</v>
       </c>
       <c r="M135" s="3">
         <v>44428</v>
@@ -9077,11 +8476,11 @@
       </c>
       <c r="O135">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P135">
         <f t="shared" si="17"/>
-        <v>44428.7465277778</v>
+        <v>44428.746527777781</v>
       </c>
       <c r="Q135">
         <v>855</v>
@@ -9095,7 +8494,7 @@
         <v>36</v>
       </c>
       <c r="C136" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D136">
         <v>234</v>
@@ -9104,10 +8503,10 @@
         <v>36</v>
       </c>
       <c r="F136" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G136">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H136" t="s">
         <v>10</v>
@@ -9121,11 +8520,11 @@
       </c>
       <c r="K136">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L136">
         <f t="shared" si="14"/>
-        <v>44428.7291666667</v>
+        <v>44428.729166666664</v>
       </c>
       <c r="M136" s="3">
         <v>44428</v>
@@ -9136,11 +8535,11 @@
       </c>
       <c r="O136">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P136">
         <f t="shared" si="17"/>
-        <v>44428.8020833333</v>
+        <v>44428.802083333336</v>
       </c>
       <c r="Q136">
         <v>864</v>
@@ -9154,10 +8553,10 @@
         <v>36</v>
       </c>
       <c r="C137" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D137">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E137" t="s">
         <v>36</v>
@@ -9180,11 +8579,11 @@
       </c>
       <c r="K137">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L137">
         <f t="shared" si="14"/>
-        <v>44428.8333333333</v>
+        <v>44428.833333333336</v>
       </c>
       <c r="M137" s="3">
         <v>44428</v>
@@ -9222,10 +8621,10 @@
         <v>37</v>
       </c>
       <c r="F138" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G138">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H138" t="s">
         <v>10</v>
@@ -9254,11 +8653,11 @@
       </c>
       <c r="O138">
         <f t="shared" si="16"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P138">
         <f t="shared" si="17"/>
-        <v>44429.4097222222</v>
+        <v>44429.409722222219</v>
       </c>
       <c r="Q138">
         <v>890</v>
@@ -9272,7 +8671,7 @@
         <v>37</v>
       </c>
       <c r="C139" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D139">
         <v>234</v>
@@ -9284,7 +8683,7 @@
         <v>0.375</v>
       </c>
       <c r="G139">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H139" t="s">
         <v>10</v>
@@ -9298,11 +8697,11 @@
       </c>
       <c r="K139">
         <f t="shared" si="13"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L139">
         <f t="shared" si="14"/>
-        <v>44429.3298611111</v>
+        <v>44429.329861111109</v>
       </c>
       <c r="M139" s="3">
         <v>44429</v>
@@ -9331,7 +8730,7 @@
         <v>37</v>
       </c>
       <c r="C140" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D140">
         <v>234</v>
@@ -9340,7 +8739,7 @@
         <v>37</v>
       </c>
       <c r="F140" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G140">
         <v>235</v>
@@ -9357,11 +8756,11 @@
       </c>
       <c r="K140">
         <f t="shared" si="13"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L140">
         <f t="shared" si="14"/>
-        <v>44429.3333333333</v>
+        <v>44429.333333333336</v>
       </c>
       <c r="M140" s="3">
         <v>44429</v>
@@ -9372,11 +8771,11 @@
       </c>
       <c r="O140">
         <f t="shared" si="16"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P140">
         <f t="shared" si="17"/>
-        <v>44429.3958333333</v>
+        <v>44429.395833333336</v>
       </c>
       <c r="Q140">
         <v>680</v>
@@ -9390,16 +8789,16 @@
         <v>37</v>
       </c>
       <c r="C141" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D141">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E141" t="s">
         <v>37</v>
       </c>
       <c r="F141" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G141">
         <v>234</v>
@@ -9416,11 +8815,11 @@
       </c>
       <c r="K141">
         <f t="shared" si="13"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L141">
         <f t="shared" si="14"/>
-        <v>44429.4027777778</v>
+        <v>44429.402777777781</v>
       </c>
       <c r="M141" s="3">
         <v>44429</v>
@@ -9431,11 +8830,11 @@
       </c>
       <c r="O141">
         <f t="shared" si="16"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P141">
         <f t="shared" si="17"/>
-        <v>44429.4513888889</v>
+        <v>44429.451388888891</v>
       </c>
       <c r="Q141">
         <v>873</v>
@@ -9449,7 +8848,7 @@
         <v>37</v>
       </c>
       <c r="C142" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D142">
         <v>235</v>
@@ -9458,7 +8857,7 @@
         <v>37</v>
       </c>
       <c r="F142" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G142">
         <v>234</v>
@@ -9475,11 +8874,11 @@
       </c>
       <c r="K142">
         <f t="shared" si="13"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L142">
         <f t="shared" si="14"/>
-        <v>44429.4236111111</v>
+        <v>44429.423611111109</v>
       </c>
       <c r="M142" s="3">
         <v>44429</v>
@@ -9490,11 +8889,11 @@
       </c>
       <c r="O142">
         <f t="shared" si="16"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P142">
         <f t="shared" si="17"/>
-        <v>44429.4861111111</v>
+        <v>44429.486111111109</v>
       </c>
       <c r="Q142">
         <v>681</v>
@@ -9511,13 +8910,13 @@
         <v>0.4375</v>
       </c>
       <c r="D143">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E143" t="s">
         <v>37</v>
       </c>
       <c r="F143" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G143">
         <v>234</v>
@@ -9549,11 +8948,11 @@
       </c>
       <c r="O143">
         <f t="shared" si="16"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P143">
         <f t="shared" si="17"/>
-        <v>44429.5347222222</v>
+        <v>44429.534722222219</v>
       </c>
       <c r="Q143">
         <v>891</v>
@@ -9567,7 +8966,7 @@
         <v>37</v>
       </c>
       <c r="C144" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D144">
         <v>234</v>
@@ -9576,10 +8975,10 @@
         <v>37</v>
       </c>
       <c r="F144" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G144">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H144" t="s">
         <v>10</v>
@@ -9593,11 +8992,11 @@
       </c>
       <c r="K144">
         <f t="shared" si="13"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L144">
         <f t="shared" si="14"/>
-        <v>44429.4791666667</v>
+        <v>44429.479166666664</v>
       </c>
       <c r="M144" s="3">
         <v>44429</v>
@@ -9608,11 +9007,11 @@
       </c>
       <c r="O144">
         <f t="shared" si="16"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P144">
         <f t="shared" si="17"/>
-        <v>44429.5763888889</v>
+        <v>44429.576388888891</v>
       </c>
       <c r="Q144">
         <v>884</v>
@@ -9626,7 +9025,7 @@
         <v>37</v>
       </c>
       <c r="C145" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D145">
         <v>234</v>
@@ -9635,10 +9034,10 @@
         <v>37</v>
       </c>
       <c r="F145" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G145">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H145" t="s">
         <v>10</v>
@@ -9652,11 +9051,11 @@
       </c>
       <c r="K145">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L145">
         <f t="shared" si="14"/>
-        <v>44429.5138888889</v>
+        <v>44429.513888888891</v>
       </c>
       <c r="M145" s="3">
         <v>44429</v>
@@ -9667,11 +9066,11 @@
       </c>
       <c r="O145">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P145">
         <f t="shared" si="17"/>
-        <v>44429.5868055556</v>
+        <v>44429.586805555555</v>
       </c>
       <c r="Q145">
         <v>812</v>
@@ -9685,7 +9084,7 @@
         <v>37</v>
       </c>
       <c r="C146" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D146">
         <v>234</v>
@@ -9694,10 +9093,10 @@
         <v>37</v>
       </c>
       <c r="F146" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G146">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H146" t="s">
         <v>10</v>
@@ -9711,11 +9110,11 @@
       </c>
       <c r="K146">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L146">
         <f t="shared" si="14"/>
-        <v>44429.5763888889</v>
+        <v>44429.576388888891</v>
       </c>
       <c r="M146" s="3">
         <v>44429</v>
@@ -9726,11 +9125,11 @@
       </c>
       <c r="O146">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P146">
         <f t="shared" si="17"/>
-        <v>44429.6458333333</v>
+        <v>44429.645833333336</v>
       </c>
       <c r="Q146">
         <v>854</v>
@@ -9744,16 +9143,16 @@
         <v>37</v>
       </c>
       <c r="C147" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D147">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E147" t="s">
         <v>37</v>
       </c>
       <c r="F147" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G147">
         <v>234</v>
@@ -9770,11 +9169,11 @@
       </c>
       <c r="K147">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L147">
         <f t="shared" si="14"/>
-        <v>44429.6041666667</v>
+        <v>44429.604166666664</v>
       </c>
       <c r="M147" s="3">
         <v>44429</v>
@@ -9785,11 +9184,11 @@
       </c>
       <c r="O147">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P147">
         <f t="shared" si="17"/>
-        <v>44429.7013888889</v>
+        <v>44429.701388888891</v>
       </c>
       <c r="Q147">
         <v>885</v>
@@ -9803,16 +9202,16 @@
         <v>37</v>
       </c>
       <c r="C148" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D148">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E148" t="s">
         <v>37</v>
       </c>
       <c r="F148" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G148">
         <v>234</v>
@@ -9829,11 +9228,11 @@
       </c>
       <c r="K148">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L148">
         <f t="shared" si="14"/>
-        <v>44429.6180555556</v>
+        <v>44429.618055555555</v>
       </c>
       <c r="M148" s="3">
         <v>44429</v>
@@ -9844,11 +9243,11 @@
       </c>
       <c r="O148">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P148">
         <f t="shared" si="17"/>
-        <v>44429.6944444444</v>
+        <v>44429.694444444445</v>
       </c>
       <c r="Q148">
         <v>813</v>
@@ -9862,16 +9261,16 @@
         <v>37</v>
       </c>
       <c r="C149" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D149">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E149" t="s">
         <v>37</v>
       </c>
       <c r="F149" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G149">
         <v>234</v>
@@ -9888,11 +9287,11 @@
       </c>
       <c r="K149">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L149">
         <f t="shared" si="14"/>
-        <v>44429.6736111111</v>
+        <v>44429.673611111109</v>
       </c>
       <c r="M149" s="3">
         <v>44429</v>
@@ -9903,11 +9302,11 @@
       </c>
       <c r="O149">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P149">
         <f t="shared" si="17"/>
-        <v>44429.7465277778</v>
+        <v>44429.746527777781</v>
       </c>
       <c r="Q149">
         <v>855</v>
@@ -9921,7 +9320,7 @@
         <v>37</v>
       </c>
       <c r="C150" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D150">
         <v>234</v>
@@ -9930,10 +9329,10 @@
         <v>37</v>
       </c>
       <c r="F150" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G150">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H150" t="s">
         <v>10</v>
@@ -9947,11 +9346,11 @@
       </c>
       <c r="K150">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L150">
         <f t="shared" si="14"/>
-        <v>44429.7291666667</v>
+        <v>44429.729166666664</v>
       </c>
       <c r="M150" s="3">
         <v>44429</v>
@@ -9962,11 +9361,11 @@
       </c>
       <c r="O150">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P150">
         <f t="shared" si="17"/>
-        <v>44429.8020833333</v>
+        <v>44429.802083333336</v>
       </c>
       <c r="Q150">
         <v>864</v>
@@ -9980,10 +9379,10 @@
         <v>37</v>
       </c>
       <c r="C151" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D151">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E151" t="s">
         <v>37</v>
@@ -10006,11 +9405,11 @@
       </c>
       <c r="K151">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L151">
         <f t="shared" si="14"/>
-        <v>44429.8333333333</v>
+        <v>44429.833333333336</v>
       </c>
       <c r="M151" s="3">
         <v>44429</v>
@@ -10048,10 +9447,10 @@
         <v>38</v>
       </c>
       <c r="F152" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G152">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H152" t="s">
         <v>10</v>
@@ -10080,11 +9479,11 @@
       </c>
       <c r="O152">
         <f t="shared" si="16"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P152">
         <f t="shared" si="17"/>
-        <v>44430.4097222222</v>
+        <v>44430.409722222219</v>
       </c>
       <c r="Q152">
         <v>890</v>
@@ -10098,7 +9497,7 @@
         <v>38</v>
       </c>
       <c r="C153" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D153">
         <v>234</v>
@@ -10110,7 +9509,7 @@
         <v>0.375</v>
       </c>
       <c r="G153">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H153" t="s">
         <v>10</v>
@@ -10124,11 +9523,11 @@
       </c>
       <c r="K153">
         <f t="shared" si="13"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L153">
         <f t="shared" si="14"/>
-        <v>44430.3298611111</v>
+        <v>44430.329861111109</v>
       </c>
       <c r="M153" s="3">
         <v>44430</v>
@@ -10157,7 +9556,7 @@
         <v>38</v>
       </c>
       <c r="C154" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D154">
         <v>234</v>
@@ -10166,7 +9565,7 @@
         <v>38</v>
       </c>
       <c r="F154" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G154">
         <v>235</v>
@@ -10183,11 +9582,11 @@
       </c>
       <c r="K154">
         <f t="shared" si="13"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L154">
         <f t="shared" si="14"/>
-        <v>44430.3333333333</v>
+        <v>44430.333333333336</v>
       </c>
       <c r="M154" s="3">
         <v>44430</v>
@@ -10198,11 +9597,11 @@
       </c>
       <c r="O154">
         <f t="shared" si="16"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P154">
         <f t="shared" si="17"/>
-        <v>44430.3958333333</v>
+        <v>44430.395833333336</v>
       </c>
       <c r="Q154">
         <v>680</v>
@@ -10216,16 +9615,16 @@
         <v>38</v>
       </c>
       <c r="C155" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D155">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G155">
         <v>234</v>
@@ -10242,11 +9641,11 @@
       </c>
       <c r="K155">
         <f t="shared" si="13"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L155">
         <f t="shared" si="14"/>
-        <v>44430.4027777778</v>
+        <v>44430.402777777781</v>
       </c>
       <c r="M155" s="3">
         <v>44430</v>
@@ -10257,11 +9656,11 @@
       </c>
       <c r="O155">
         <f t="shared" si="16"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P155">
         <f t="shared" si="17"/>
-        <v>44430.4513888889</v>
+        <v>44430.451388888891</v>
       </c>
       <c r="Q155">
         <v>873</v>
@@ -10275,7 +9674,7 @@
         <v>38</v>
       </c>
       <c r="C156" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D156">
         <v>235</v>
@@ -10284,7 +9683,7 @@
         <v>38</v>
       </c>
       <c r="F156" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G156">
         <v>234</v>
@@ -10301,11 +9700,11 @@
       </c>
       <c r="K156">
         <f t="shared" si="13"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L156">
         <f t="shared" si="14"/>
-        <v>44430.4236111111</v>
+        <v>44430.423611111109</v>
       </c>
       <c r="M156" s="3">
         <v>44430</v>
@@ -10316,11 +9715,11 @@
       </c>
       <c r="O156">
         <f t="shared" si="16"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P156">
         <f t="shared" si="17"/>
-        <v>44430.4861111111</v>
+        <v>44430.486111111109</v>
       </c>
       <c r="Q156">
         <v>681</v>
@@ -10337,13 +9736,13 @@
         <v>0.4375</v>
       </c>
       <c r="D157">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
       </c>
       <c r="F157" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G157">
         <v>234</v>
@@ -10375,11 +9774,11 @@
       </c>
       <c r="O157">
         <f t="shared" si="16"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P157">
         <f t="shared" si="17"/>
-        <v>44430.5347222222</v>
+        <v>44430.534722222219</v>
       </c>
       <c r="Q157">
         <v>891</v>
@@ -10393,7 +9792,7 @@
         <v>38</v>
       </c>
       <c r="C158" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D158">
         <v>234</v>
@@ -10402,10 +9801,10 @@
         <v>38</v>
       </c>
       <c r="F158" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G158">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H158" t="s">
         <v>10</v>
@@ -10419,11 +9818,11 @@
       </c>
       <c r="K158">
         <f t="shared" si="13"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L158">
         <f t="shared" si="14"/>
-        <v>44430.4791666667</v>
+        <v>44430.479166666664</v>
       </c>
       <c r="M158" s="3">
         <v>44430</v>
@@ -10434,11 +9833,11 @@
       </c>
       <c r="O158">
         <f t="shared" si="16"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P158">
         <f t="shared" si="17"/>
-        <v>44430.5763888889</v>
+        <v>44430.576388888891</v>
       </c>
       <c r="Q158">
         <v>884</v>
@@ -10452,7 +9851,7 @@
         <v>38</v>
       </c>
       <c r="C159" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D159">
         <v>234</v>
@@ -10461,10 +9860,10 @@
         <v>38</v>
       </c>
       <c r="F159" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G159">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H159" t="s">
         <v>10</v>
@@ -10478,11 +9877,11 @@
       </c>
       <c r="K159">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L159">
         <f t="shared" si="14"/>
-        <v>44430.5138888889</v>
+        <v>44430.513888888891</v>
       </c>
       <c r="M159" s="3">
         <v>44430</v>
@@ -10493,11 +9892,11 @@
       </c>
       <c r="O159">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P159">
         <f t="shared" si="17"/>
-        <v>44430.5868055556</v>
+        <v>44430.586805555555</v>
       </c>
       <c r="Q159">
         <v>812</v>
@@ -10511,7 +9910,7 @@
         <v>38</v>
       </c>
       <c r="C160" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D160">
         <v>234</v>
@@ -10520,10 +9919,10 @@
         <v>38</v>
       </c>
       <c r="F160" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G160">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H160" t="s">
         <v>10</v>
@@ -10537,11 +9936,11 @@
       </c>
       <c r="K160">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L160">
         <f t="shared" si="14"/>
-        <v>44430.5763888889</v>
+        <v>44430.576388888891</v>
       </c>
       <c r="M160" s="3">
         <v>44430</v>
@@ -10552,11 +9951,11 @@
       </c>
       <c r="O160">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P160">
         <f t="shared" si="17"/>
-        <v>44430.6458333333</v>
+        <v>44430.645833333336</v>
       </c>
       <c r="Q160">
         <v>854</v>
@@ -10570,16 +9969,16 @@
         <v>38</v>
       </c>
       <c r="C161" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D161">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
       </c>
       <c r="F161" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G161">
         <v>234</v>
@@ -10596,11 +9995,11 @@
       </c>
       <c r="K161">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L161">
         <f t="shared" si="14"/>
-        <v>44430.6041666667</v>
+        <v>44430.604166666664</v>
       </c>
       <c r="M161" s="3">
         <v>44430</v>
@@ -10611,11 +10010,11 @@
       </c>
       <c r="O161">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P161">
         <f t="shared" si="17"/>
-        <v>44430.7013888889</v>
+        <v>44430.701388888891</v>
       </c>
       <c r="Q161">
         <v>885</v>
@@ -10629,16 +10028,16 @@
         <v>38</v>
       </c>
       <c r="C162" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D162">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
       </c>
       <c r="F162" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G162">
         <v>234</v>
@@ -10655,11 +10054,11 @@
       </c>
       <c r="K162">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L162">
         <f t="shared" si="14"/>
-        <v>44430.6180555556</v>
+        <v>44430.618055555555</v>
       </c>
       <c r="M162" s="3">
         <v>44430</v>
@@ -10670,11 +10069,11 @@
       </c>
       <c r="O162">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P162">
         <f t="shared" si="17"/>
-        <v>44430.6944444444</v>
+        <v>44430.694444444445</v>
       </c>
       <c r="Q162">
         <v>813</v>
@@ -10688,16 +10087,16 @@
         <v>38</v>
       </c>
       <c r="C163" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D163">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
       </c>
       <c r="F163" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G163">
         <v>234</v>
@@ -10714,11 +10113,11 @@
       </c>
       <c r="K163">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L163">
         <f t="shared" si="14"/>
-        <v>44430.6736111111</v>
+        <v>44430.673611111109</v>
       </c>
       <c r="M163" s="3">
         <v>44430</v>
@@ -10729,11 +10128,11 @@
       </c>
       <c r="O163">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P163">
         <f t="shared" si="17"/>
-        <v>44430.7465277778</v>
+        <v>44430.746527777781</v>
       </c>
       <c r="Q163">
         <v>855</v>
@@ -10747,7 +10146,7 @@
         <v>38</v>
       </c>
       <c r="C164" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D164">
         <v>234</v>
@@ -10756,10 +10155,10 @@
         <v>38</v>
       </c>
       <c r="F164" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G164">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H164" t="s">
         <v>10</v>
@@ -10773,11 +10172,11 @@
       </c>
       <c r="K164">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L164">
         <f t="shared" si="14"/>
-        <v>44430.7291666667</v>
+        <v>44430.729166666664</v>
       </c>
       <c r="M164" s="3">
         <v>44430</v>
@@ -10788,11 +10187,11 @@
       </c>
       <c r="O164">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P164">
         <f t="shared" si="17"/>
-        <v>44430.8020833333</v>
+        <v>44430.802083333336</v>
       </c>
       <c r="Q164">
         <v>864</v>
@@ -10806,10 +10205,10 @@
         <v>38</v>
       </c>
       <c r="C165" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D165">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
@@ -10832,11 +10231,11 @@
       </c>
       <c r="K165">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L165">
         <f t="shared" si="14"/>
-        <v>44430.8333333333</v>
+        <v>44430.833333333336</v>
       </c>
       <c r="M165" s="3">
         <v>44430</v>
@@ -10874,10 +10273,10 @@
         <v>39</v>
       </c>
       <c r="F166" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G166">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H166" t="s">
         <v>10</v>
@@ -10906,11 +10305,11 @@
       </c>
       <c r="O166">
         <f t="shared" si="16"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P166">
         <f t="shared" si="17"/>
-        <v>44431.4097222222</v>
+        <v>44431.409722222219</v>
       </c>
       <c r="Q166">
         <v>890</v>
@@ -10924,7 +10323,7 @@
         <v>39</v>
       </c>
       <c r="C167" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D167">
         <v>234</v>
@@ -10936,7 +10335,7 @@
         <v>0.375</v>
       </c>
       <c r="G167">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H167" t="s">
         <v>10</v>
@@ -10950,11 +10349,11 @@
       </c>
       <c r="K167">
         <f t="shared" si="13"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L167">
         <f t="shared" si="14"/>
-        <v>44431.3298611111</v>
+        <v>44431.329861111109</v>
       </c>
       <c r="M167" s="3">
         <v>44431</v>
@@ -10983,7 +10382,7 @@
         <v>39</v>
       </c>
       <c r="C168" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D168">
         <v>234</v>
@@ -10992,7 +10391,7 @@
         <v>39</v>
       </c>
       <c r="F168" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G168">
         <v>235</v>
@@ -11009,11 +10408,11 @@
       </c>
       <c r="K168">
         <f t="shared" si="13"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L168">
         <f t="shared" si="14"/>
-        <v>44431.3333333333</v>
+        <v>44431.333333333336</v>
       </c>
       <c r="M168" s="3">
         <v>44431</v>
@@ -11024,11 +10423,11 @@
       </c>
       <c r="O168">
         <f t="shared" si="16"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P168">
         <f t="shared" si="17"/>
-        <v>44431.3958333333</v>
+        <v>44431.395833333336</v>
       </c>
       <c r="Q168">
         <v>680</v>
@@ -11042,16 +10441,16 @@
         <v>39</v>
       </c>
       <c r="C169" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D169">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E169" t="s">
         <v>39</v>
       </c>
       <c r="F169" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G169">
         <v>234</v>
@@ -11068,11 +10467,11 @@
       </c>
       <c r="K169">
         <f t="shared" si="13"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L169">
         <f t="shared" si="14"/>
-        <v>44431.4027777778</v>
+        <v>44431.402777777781</v>
       </c>
       <c r="M169" s="3">
         <v>44431</v>
@@ -11083,11 +10482,11 @@
       </c>
       <c r="O169">
         <f t="shared" si="16"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P169">
         <f t="shared" si="17"/>
-        <v>44431.4513888889</v>
+        <v>44431.451388888891</v>
       </c>
       <c r="Q169">
         <v>873</v>
@@ -11101,7 +10500,7 @@
         <v>39</v>
       </c>
       <c r="C170" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D170">
         <v>235</v>
@@ -11110,7 +10509,7 @@
         <v>39</v>
       </c>
       <c r="F170" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G170">
         <v>234</v>
@@ -11127,11 +10526,11 @@
       </c>
       <c r="K170">
         <f t="shared" si="13"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L170">
         <f t="shared" si="14"/>
-        <v>44431.4236111111</v>
+        <v>44431.423611111109</v>
       </c>
       <c r="M170" s="3">
         <v>44431</v>
@@ -11142,11 +10541,11 @@
       </c>
       <c r="O170">
         <f t="shared" si="16"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P170">
         <f t="shared" si="17"/>
-        <v>44431.4861111111</v>
+        <v>44431.486111111109</v>
       </c>
       <c r="Q170">
         <v>681</v>
@@ -11163,13 +10562,13 @@
         <v>0.4375</v>
       </c>
       <c r="D171">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E171" t="s">
         <v>39</v>
       </c>
       <c r="F171" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G171">
         <v>234</v>
@@ -11201,11 +10600,11 @@
       </c>
       <c r="O171">
         <f t="shared" si="16"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P171">
         <f t="shared" si="17"/>
-        <v>44431.5347222222</v>
+        <v>44431.534722222219</v>
       </c>
       <c r="Q171">
         <v>891</v>
@@ -11219,7 +10618,7 @@
         <v>39</v>
       </c>
       <c r="C172" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D172">
         <v>234</v>
@@ -11228,10 +10627,10 @@
         <v>39</v>
       </c>
       <c r="F172" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G172">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H172" t="s">
         <v>10</v>
@@ -11245,11 +10644,11 @@
       </c>
       <c r="K172">
         <f t="shared" si="13"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L172">
         <f t="shared" si="14"/>
-        <v>44431.4791666667</v>
+        <v>44431.479166666664</v>
       </c>
       <c r="M172" s="3">
         <v>44431</v>
@@ -11260,11 +10659,11 @@
       </c>
       <c r="O172">
         <f t="shared" si="16"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P172">
         <f t="shared" si="17"/>
-        <v>44431.5763888889</v>
+        <v>44431.576388888891</v>
       </c>
       <c r="Q172">
         <v>884</v>
@@ -11278,7 +10677,7 @@
         <v>39</v>
       </c>
       <c r="C173" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D173">
         <v>234</v>
@@ -11287,10 +10686,10 @@
         <v>39</v>
       </c>
       <c r="F173" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G173">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H173" t="s">
         <v>10</v>
@@ -11304,11 +10703,11 @@
       </c>
       <c r="K173">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L173">
         <f t="shared" si="14"/>
-        <v>44431.5138888889</v>
+        <v>44431.513888888891</v>
       </c>
       <c r="M173" s="3">
         <v>44431</v>
@@ -11319,11 +10718,11 @@
       </c>
       <c r="O173">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P173">
         <f t="shared" si="17"/>
-        <v>44431.5868055556</v>
+        <v>44431.586805555555</v>
       </c>
       <c r="Q173">
         <v>812</v>
@@ -11337,7 +10736,7 @@
         <v>39</v>
       </c>
       <c r="C174" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D174">
         <v>234</v>
@@ -11346,10 +10745,10 @@
         <v>39</v>
       </c>
       <c r="F174" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G174">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H174" t="s">
         <v>10</v>
@@ -11363,11 +10762,11 @@
       </c>
       <c r="K174">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L174">
         <f t="shared" si="14"/>
-        <v>44431.5763888889</v>
+        <v>44431.576388888891</v>
       </c>
       <c r="M174" s="3">
         <v>44431</v>
@@ -11378,11 +10777,11 @@
       </c>
       <c r="O174">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P174">
         <f t="shared" si="17"/>
-        <v>44431.6458333333</v>
+        <v>44431.645833333336</v>
       </c>
       <c r="Q174">
         <v>854</v>
@@ -11396,16 +10795,16 @@
         <v>39</v>
       </c>
       <c r="C175" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D175">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E175" t="s">
         <v>39</v>
       </c>
       <c r="F175" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G175">
         <v>234</v>
@@ -11422,11 +10821,11 @@
       </c>
       <c r="K175">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L175">
         <f t="shared" si="14"/>
-        <v>44431.6041666667</v>
+        <v>44431.604166666664</v>
       </c>
       <c r="M175" s="3">
         <v>44431</v>
@@ -11437,11 +10836,11 @@
       </c>
       <c r="O175">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P175">
         <f t="shared" si="17"/>
-        <v>44431.7013888889</v>
+        <v>44431.701388888891</v>
       </c>
       <c r="Q175">
         <v>885</v>
@@ -11455,16 +10854,16 @@
         <v>39</v>
       </c>
       <c r="C176" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D176">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E176" t="s">
         <v>39</v>
       </c>
       <c r="F176" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G176">
         <v>234</v>
@@ -11481,11 +10880,11 @@
       </c>
       <c r="K176">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L176">
         <f t="shared" si="14"/>
-        <v>44431.6180555556</v>
+        <v>44431.618055555555</v>
       </c>
       <c r="M176" s="3">
         <v>44431</v>
@@ -11496,11 +10895,11 @@
       </c>
       <c r="O176">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P176">
         <f t="shared" si="17"/>
-        <v>44431.6944444444</v>
+        <v>44431.694444444445</v>
       </c>
       <c r="Q176">
         <v>813</v>
@@ -11514,16 +10913,16 @@
         <v>39</v>
       </c>
       <c r="C177" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D177">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E177" t="s">
         <v>39</v>
       </c>
       <c r="F177" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G177">
         <v>234</v>
@@ -11540,11 +10939,11 @@
       </c>
       <c r="K177">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L177">
         <f t="shared" si="14"/>
-        <v>44431.6736111111</v>
+        <v>44431.673611111109</v>
       </c>
       <c r="M177" s="3">
         <v>44431</v>
@@ -11555,11 +10954,11 @@
       </c>
       <c r="O177">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P177">
         <f t="shared" si="17"/>
-        <v>44431.7465277778</v>
+        <v>44431.746527777781</v>
       </c>
       <c r="Q177">
         <v>855</v>
@@ -11573,7 +10972,7 @@
         <v>39</v>
       </c>
       <c r="C178" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D178">
         <v>234</v>
@@ -11582,10 +10981,10 @@
         <v>39</v>
       </c>
       <c r="F178" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G178">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H178" t="s">
         <v>10</v>
@@ -11599,11 +10998,11 @@
       </c>
       <c r="K178">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L178">
         <f t="shared" si="14"/>
-        <v>44431.7291666667</v>
+        <v>44431.729166666664</v>
       </c>
       <c r="M178" s="3">
         <v>44431</v>
@@ -11614,11 +11013,11 @@
       </c>
       <c r="O178">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P178">
         <f t="shared" si="17"/>
-        <v>44431.8020833333</v>
+        <v>44431.802083333336</v>
       </c>
       <c r="Q178">
         <v>864</v>
@@ -11632,10 +11031,10 @@
         <v>39</v>
       </c>
       <c r="C179" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D179">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E179" t="s">
         <v>39</v>
@@ -11658,11 +11057,11 @@
       </c>
       <c r="K179">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L179">
         <f t="shared" si="14"/>
-        <v>44431.8333333333</v>
+        <v>44431.833333333336</v>
       </c>
       <c r="M179" s="3">
         <v>44431</v>
@@ -11700,10 +11099,10 @@
         <v>40</v>
       </c>
       <c r="F180" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G180">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H180" t="s">
         <v>10</v>
@@ -11732,11 +11131,11 @@
       </c>
       <c r="O180">
         <f t="shared" si="16"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P180">
         <f t="shared" si="17"/>
-        <v>44432.4097222222</v>
+        <v>44432.409722222219</v>
       </c>
       <c r="Q180">
         <v>890</v>
@@ -11750,7 +11149,7 @@
         <v>40</v>
       </c>
       <c r="C181" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D181">
         <v>234</v>
@@ -11762,7 +11161,7 @@
         <v>0.375</v>
       </c>
       <c r="G181">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H181" t="s">
         <v>10</v>
@@ -11776,11 +11175,11 @@
       </c>
       <c r="K181">
         <f t="shared" si="13"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L181">
         <f t="shared" si="14"/>
-        <v>44432.3298611111</v>
+        <v>44432.329861111109</v>
       </c>
       <c r="M181" s="3">
         <v>44432</v>
@@ -11809,7 +11208,7 @@
         <v>40</v>
       </c>
       <c r="C182" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D182">
         <v>234</v>
@@ -11818,7 +11217,7 @@
         <v>40</v>
       </c>
       <c r="F182" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G182">
         <v>235</v>
@@ -11835,11 +11234,11 @@
       </c>
       <c r="K182">
         <f t="shared" si="13"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L182">
         <f t="shared" si="14"/>
-        <v>44432.3333333333</v>
+        <v>44432.333333333336</v>
       </c>
       <c r="M182" s="3">
         <v>44432</v>
@@ -11850,11 +11249,11 @@
       </c>
       <c r="O182">
         <f t="shared" si="16"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P182">
         <f t="shared" si="17"/>
-        <v>44432.3958333333</v>
+        <v>44432.395833333336</v>
       </c>
       <c r="Q182">
         <v>680</v>
@@ -11868,16 +11267,16 @@
         <v>40</v>
       </c>
       <c r="C183" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D183">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E183" t="s">
         <v>40</v>
       </c>
       <c r="F183" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G183">
         <v>234</v>
@@ -11894,11 +11293,11 @@
       </c>
       <c r="K183">
         <f t="shared" si="13"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L183">
         <f t="shared" si="14"/>
-        <v>44432.4027777778</v>
+        <v>44432.402777777781</v>
       </c>
       <c r="M183" s="3">
         <v>44432</v>
@@ -11909,11 +11308,11 @@
       </c>
       <c r="O183">
         <f t="shared" si="16"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P183">
         <f t="shared" si="17"/>
-        <v>44432.4513888889</v>
+        <v>44432.451388888891</v>
       </c>
       <c r="Q183">
         <v>873</v>
@@ -11927,7 +11326,7 @@
         <v>40</v>
       </c>
       <c r="C184" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D184">
         <v>235</v>
@@ -11936,7 +11335,7 @@
         <v>40</v>
       </c>
       <c r="F184" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G184">
         <v>234</v>
@@ -11953,11 +11352,11 @@
       </c>
       <c r="K184">
         <f t="shared" si="13"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L184">
         <f t="shared" si="14"/>
-        <v>44432.4236111111</v>
+        <v>44432.423611111109</v>
       </c>
       <c r="M184" s="3">
         <v>44432</v>
@@ -11968,11 +11367,11 @@
       </c>
       <c r="O184">
         <f t="shared" si="16"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P184">
         <f t="shared" si="17"/>
-        <v>44432.4861111111</v>
+        <v>44432.486111111109</v>
       </c>
       <c r="Q184">
         <v>681</v>
@@ -11989,13 +11388,13 @@
         <v>0.4375</v>
       </c>
       <c r="D185">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E185" t="s">
         <v>40</v>
       </c>
       <c r="F185" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G185">
         <v>234</v>
@@ -12027,11 +11426,11 @@
       </c>
       <c r="O185">
         <f t="shared" si="16"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P185">
         <f t="shared" si="17"/>
-        <v>44432.5347222222</v>
+        <v>44432.534722222219</v>
       </c>
       <c r="Q185">
         <v>891</v>
@@ -12045,7 +11444,7 @@
         <v>40</v>
       </c>
       <c r="C186" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D186">
         <v>234</v>
@@ -12054,10 +11453,10 @@
         <v>40</v>
       </c>
       <c r="F186" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G186">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H186" t="s">
         <v>10</v>
@@ -12071,11 +11470,11 @@
       </c>
       <c r="K186">
         <f t="shared" si="13"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L186">
         <f t="shared" si="14"/>
-        <v>44432.4791666667</v>
+        <v>44432.479166666664</v>
       </c>
       <c r="M186" s="3">
         <v>44432</v>
@@ -12086,11 +11485,11 @@
       </c>
       <c r="O186">
         <f t="shared" si="16"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P186">
         <f t="shared" si="17"/>
-        <v>44432.5763888889</v>
+        <v>44432.576388888891</v>
       </c>
       <c r="Q186">
         <v>884</v>
@@ -12104,7 +11503,7 @@
         <v>40</v>
       </c>
       <c r="C187" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D187">
         <v>234</v>
@@ -12113,10 +11512,10 @@
         <v>40</v>
       </c>
       <c r="F187" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G187">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H187" t="s">
         <v>10</v>
@@ -12130,11 +11529,11 @@
       </c>
       <c r="K187">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L187">
         <f t="shared" si="14"/>
-        <v>44432.5138888889</v>
+        <v>44432.513888888891</v>
       </c>
       <c r="M187" s="3">
         <v>44432</v>
@@ -12145,11 +11544,11 @@
       </c>
       <c r="O187">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P187">
         <f t="shared" si="17"/>
-        <v>44432.5868055556</v>
+        <v>44432.586805555555</v>
       </c>
       <c r="Q187">
         <v>812</v>
@@ -12163,7 +11562,7 @@
         <v>40</v>
       </c>
       <c r="C188" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D188">
         <v>234</v>
@@ -12172,10 +11571,10 @@
         <v>40</v>
       </c>
       <c r="F188" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G188">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H188" t="s">
         <v>10</v>
@@ -12189,11 +11588,11 @@
       </c>
       <c r="K188">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L188">
         <f t="shared" si="14"/>
-        <v>44432.5763888889</v>
+        <v>44432.576388888891</v>
       </c>
       <c r="M188" s="3">
         <v>44432</v>
@@ -12204,11 +11603,11 @@
       </c>
       <c r="O188">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P188">
         <f t="shared" si="17"/>
-        <v>44432.6458333333</v>
+        <v>44432.645833333336</v>
       </c>
       <c r="Q188">
         <v>854</v>
@@ -12222,16 +11621,16 @@
         <v>40</v>
       </c>
       <c r="C189" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D189">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E189" t="s">
         <v>40</v>
       </c>
       <c r="F189" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G189">
         <v>234</v>
@@ -12248,11 +11647,11 @@
       </c>
       <c r="K189">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L189">
         <f t="shared" si="14"/>
-        <v>44432.6041666667</v>
+        <v>44432.604166666664</v>
       </c>
       <c r="M189" s="3">
         <v>44432</v>
@@ -12263,11 +11662,11 @@
       </c>
       <c r="O189">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P189">
         <f t="shared" si="17"/>
-        <v>44432.7013888889</v>
+        <v>44432.701388888891</v>
       </c>
       <c r="Q189">
         <v>885</v>
@@ -12281,16 +11680,16 @@
         <v>40</v>
       </c>
       <c r="C190" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D190">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E190" t="s">
         <v>40</v>
       </c>
       <c r="F190" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G190">
         <v>234</v>
@@ -12307,11 +11706,11 @@
       </c>
       <c r="K190">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L190">
         <f t="shared" si="14"/>
-        <v>44432.6180555556</v>
+        <v>44432.618055555555</v>
       </c>
       <c r="M190" s="3">
         <v>44432</v>
@@ -12322,11 +11721,11 @@
       </c>
       <c r="O190">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P190">
         <f t="shared" si="17"/>
-        <v>44432.6944444444</v>
+        <v>44432.694444444445</v>
       </c>
       <c r="Q190">
         <v>813</v>
@@ -12340,16 +11739,16 @@
         <v>40</v>
       </c>
       <c r="C191" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D191">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E191" t="s">
         <v>40</v>
       </c>
       <c r="F191" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G191">
         <v>234</v>
@@ -12366,11 +11765,11 @@
       </c>
       <c r="K191">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L191">
         <f t="shared" si="14"/>
-        <v>44432.6736111111</v>
+        <v>44432.673611111109</v>
       </c>
       <c r="M191" s="3">
         <v>44432</v>
@@ -12381,11 +11780,11 @@
       </c>
       <c r="O191">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P191">
         <f t="shared" si="17"/>
-        <v>44432.7465277778</v>
+        <v>44432.746527777781</v>
       </c>
       <c r="Q191">
         <v>855</v>
@@ -12399,7 +11798,7 @@
         <v>40</v>
       </c>
       <c r="C192" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D192">
         <v>234</v>
@@ -12408,10 +11807,10 @@
         <v>40</v>
       </c>
       <c r="F192" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G192">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H192" t="s">
         <v>10</v>
@@ -12425,11 +11824,11 @@
       </c>
       <c r="K192">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L192">
         <f t="shared" si="14"/>
-        <v>44432.7291666667</v>
+        <v>44432.729166666664</v>
       </c>
       <c r="M192" s="3">
         <v>44432</v>
@@ -12440,11 +11839,11 @@
       </c>
       <c r="O192">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P192">
         <f t="shared" si="17"/>
-        <v>44432.8020833333</v>
+        <v>44432.802083333336</v>
       </c>
       <c r="Q192">
         <v>864</v>
@@ -12458,10 +11857,10 @@
         <v>40</v>
       </c>
       <c r="C193" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D193">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E193" t="s">
         <v>40</v>
@@ -12484,11 +11883,11 @@
       </c>
       <c r="K193">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L193">
         <f t="shared" si="14"/>
-        <v>44432.8333333333</v>
+        <v>44432.833333333336</v>
       </c>
       <c r="M193" s="3">
         <v>44432</v>
@@ -12526,10 +11925,10 @@
         <v>41</v>
       </c>
       <c r="F194" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G194">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H194" t="s">
         <v>10</v>
@@ -12558,11 +11957,11 @@
       </c>
       <c r="O194">
         <f t="shared" ref="O194:O207" si="22">VALUE(F194)</f>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P194">
         <f t="shared" ref="P194:P207" si="23">N194+O194</f>
-        <v>44433.4097222222</v>
+        <v>44433.409722222219</v>
       </c>
       <c r="Q194">
         <v>890</v>
@@ -12576,7 +11975,7 @@
         <v>41</v>
       </c>
       <c r="C195" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D195">
         <v>234</v>
@@ -12588,7 +11987,7 @@
         <v>0.375</v>
       </c>
       <c r="G195">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H195" t="s">
         <v>10</v>
@@ -12602,11 +12001,11 @@
       </c>
       <c r="K195">
         <f t="shared" si="19"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L195">
         <f t="shared" si="20"/>
-        <v>44433.3298611111</v>
+        <v>44433.329861111109</v>
       </c>
       <c r="M195" s="3">
         <v>44433</v>
@@ -12635,7 +12034,7 @@
         <v>41</v>
       </c>
       <c r="C196" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D196">
         <v>234</v>
@@ -12644,7 +12043,7 @@
         <v>41</v>
       </c>
       <c r="F196" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G196">
         <v>235</v>
@@ -12661,11 +12060,11 @@
       </c>
       <c r="K196">
         <f t="shared" si="19"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L196">
         <f t="shared" si="20"/>
-        <v>44433.3333333333</v>
+        <v>44433.333333333336</v>
       </c>
       <c r="M196" s="3">
         <v>44433</v>
@@ -12676,11 +12075,11 @@
       </c>
       <c r="O196">
         <f t="shared" si="22"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P196">
         <f t="shared" si="23"/>
-        <v>44433.3958333333</v>
+        <v>44433.395833333336</v>
       </c>
       <c r="Q196">
         <v>680</v>
@@ -12694,16 +12093,16 @@
         <v>41</v>
       </c>
       <c r="C197" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D197">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E197" t="s">
         <v>41</v>
       </c>
       <c r="F197" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G197">
         <v>234</v>
@@ -12720,11 +12119,11 @@
       </c>
       <c r="K197">
         <f t="shared" si="19"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L197">
         <f t="shared" si="20"/>
-        <v>44433.4027777778</v>
+        <v>44433.402777777781</v>
       </c>
       <c r="M197" s="3">
         <v>44433</v>
@@ -12735,11 +12134,11 @@
       </c>
       <c r="O197">
         <f t="shared" si="22"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P197">
         <f t="shared" si="23"/>
-        <v>44433.4513888889</v>
+        <v>44433.451388888891</v>
       </c>
       <c r="Q197">
         <v>873</v>
@@ -12753,7 +12152,7 @@
         <v>41</v>
       </c>
       <c r="C198" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D198">
         <v>235</v>
@@ -12762,7 +12161,7 @@
         <v>41</v>
       </c>
       <c r="F198" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G198">
         <v>234</v>
@@ -12779,11 +12178,11 @@
       </c>
       <c r="K198">
         <f t="shared" si="19"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L198">
         <f t="shared" si="20"/>
-        <v>44433.4236111111</v>
+        <v>44433.423611111109</v>
       </c>
       <c r="M198" s="3">
         <v>44433</v>
@@ -12794,11 +12193,11 @@
       </c>
       <c r="O198">
         <f t="shared" si="22"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P198">
         <f t="shared" si="23"/>
-        <v>44433.4861111111</v>
+        <v>44433.486111111109</v>
       </c>
       <c r="Q198">
         <v>681</v>
@@ -12815,13 +12214,13 @@
         <v>0.4375</v>
       </c>
       <c r="D199">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E199" t="s">
         <v>41</v>
       </c>
       <c r="F199" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G199">
         <v>234</v>
@@ -12853,11 +12252,11 @@
       </c>
       <c r="O199">
         <f t="shared" si="22"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P199">
         <f t="shared" si="23"/>
-        <v>44433.5347222222</v>
+        <v>44433.534722222219</v>
       </c>
       <c r="Q199">
         <v>891</v>
@@ -12871,7 +12270,7 @@
         <v>41</v>
       </c>
       <c r="C200" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D200">
         <v>234</v>
@@ -12880,10 +12279,10 @@
         <v>41</v>
       </c>
       <c r="F200" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G200">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H200" t="s">
         <v>10</v>
@@ -12897,11 +12296,11 @@
       </c>
       <c r="K200">
         <f t="shared" si="19"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L200">
         <f t="shared" si="20"/>
-        <v>44433.4791666667</v>
+        <v>44433.479166666664</v>
       </c>
       <c r="M200" s="3">
         <v>44433</v>
@@ -12912,11 +12311,11 @@
       </c>
       <c r="O200">
         <f t="shared" si="22"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P200">
         <f t="shared" si="23"/>
-        <v>44433.5763888889</v>
+        <v>44433.576388888891</v>
       </c>
       <c r="Q200">
         <v>884</v>
@@ -12930,7 +12329,7 @@
         <v>41</v>
       </c>
       <c r="C201" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D201">
         <v>234</v>
@@ -12939,10 +12338,10 @@
         <v>41</v>
       </c>
       <c r="F201" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G201">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H201" t="s">
         <v>10</v>
@@ -12956,11 +12355,11 @@
       </c>
       <c r="K201">
         <f t="shared" si="19"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L201">
         <f t="shared" si="20"/>
-        <v>44433.5138888889</v>
+        <v>44433.513888888891</v>
       </c>
       <c r="M201" s="3">
         <v>44433</v>
@@ -12971,11 +12370,11 @@
       </c>
       <c r="O201">
         <f t="shared" si="22"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P201">
         <f t="shared" si="23"/>
-        <v>44433.5868055556</v>
+        <v>44433.586805555555</v>
       </c>
       <c r="Q201">
         <v>812</v>
@@ -12989,7 +12388,7 @@
         <v>41</v>
       </c>
       <c r="C202" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D202">
         <v>234</v>
@@ -12998,10 +12397,10 @@
         <v>41</v>
       </c>
       <c r="F202" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G202">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H202" t="s">
         <v>10</v>
@@ -13015,11 +12414,11 @@
       </c>
       <c r="K202">
         <f t="shared" si="19"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L202">
         <f t="shared" si="20"/>
-        <v>44433.5763888889</v>
+        <v>44433.576388888891</v>
       </c>
       <c r="M202" s="3">
         <v>44433</v>
@@ -13030,11 +12429,11 @@
       </c>
       <c r="O202">
         <f t="shared" si="22"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P202">
         <f t="shared" si="23"/>
-        <v>44433.6458333333</v>
+        <v>44433.645833333336</v>
       </c>
       <c r="Q202">
         <v>854</v>
@@ -13048,16 +12447,16 @@
         <v>41</v>
       </c>
       <c r="C203" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D203">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E203" t="s">
         <v>41</v>
       </c>
       <c r="F203" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G203">
         <v>234</v>
@@ -13074,11 +12473,11 @@
       </c>
       <c r="K203">
         <f t="shared" si="19"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L203">
         <f t="shared" si="20"/>
-        <v>44433.6041666667</v>
+        <v>44433.604166666664</v>
       </c>
       <c r="M203" s="3">
         <v>44433</v>
@@ -13089,11 +12488,11 @@
       </c>
       <c r="O203">
         <f t="shared" si="22"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P203">
         <f t="shared" si="23"/>
-        <v>44433.7013888889</v>
+        <v>44433.701388888891</v>
       </c>
       <c r="Q203">
         <v>885</v>
@@ -13107,16 +12506,16 @@
         <v>41</v>
       </c>
       <c r="C204" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D204">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E204" t="s">
         <v>41</v>
       </c>
       <c r="F204" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G204">
         <v>234</v>
@@ -13133,11 +12532,11 @@
       </c>
       <c r="K204">
         <f t="shared" si="19"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L204">
         <f t="shared" si="20"/>
-        <v>44433.6180555556</v>
+        <v>44433.618055555555</v>
       </c>
       <c r="M204" s="3">
         <v>44433</v>
@@ -13148,11 +12547,11 @@
       </c>
       <c r="O204">
         <f t="shared" si="22"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P204">
         <f t="shared" si="23"/>
-        <v>44433.6944444444</v>
+        <v>44433.694444444445</v>
       </c>
       <c r="Q204">
         <v>813</v>
@@ -13166,16 +12565,16 @@
         <v>41</v>
       </c>
       <c r="C205" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D205">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E205" t="s">
         <v>41</v>
       </c>
       <c r="F205" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G205">
         <v>234</v>
@@ -13192,11 +12591,11 @@
       </c>
       <c r="K205">
         <f t="shared" si="19"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L205">
         <f t="shared" si="20"/>
-        <v>44433.6736111111</v>
+        <v>44433.673611111109</v>
       </c>
       <c r="M205" s="3">
         <v>44433</v>
@@ -13207,11 +12606,11 @@
       </c>
       <c r="O205">
         <f t="shared" si="22"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P205">
         <f t="shared" si="23"/>
-        <v>44433.7465277778</v>
+        <v>44433.746527777781</v>
       </c>
       <c r="Q205">
         <v>855</v>
@@ -13225,7 +12624,7 @@
         <v>41</v>
       </c>
       <c r="C206" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D206">
         <v>234</v>
@@ -13234,10 +12633,10 @@
         <v>41</v>
       </c>
       <c r="F206" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G206">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H206" t="s">
         <v>10</v>
@@ -13251,11 +12650,11 @@
       </c>
       <c r="K206">
         <f t="shared" si="19"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L206">
         <f t="shared" si="20"/>
-        <v>44433.7291666667</v>
+        <v>44433.729166666664</v>
       </c>
       <c r="M206" s="3">
         <v>44433</v>
@@ -13266,11 +12665,11 @@
       </c>
       <c r="O206">
         <f t="shared" si="22"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P206">
         <f t="shared" si="23"/>
-        <v>44433.8020833333</v>
+        <v>44433.802083333336</v>
       </c>
       <c r="Q206">
         <v>864</v>
@@ -13284,10 +12683,10 @@
         <v>41</v>
       </c>
       <c r="C207" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D207">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E207" t="s">
         <v>41</v>
@@ -13310,11 +12709,11 @@
       </c>
       <c r="K207">
         <f t="shared" si="19"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L207">
         <f t="shared" si="20"/>
-        <v>44433.8333333333</v>
+        <v>44433.833333333336</v>
       </c>
       <c r="M207" s="3">
         <v>44433</v>
@@ -13336,13 +12735,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q207">
-    <sortState ref="A1:Q207">
-      <sortCondition ref="L1:L207"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:Q207" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>